--- a/estadoPruebasInstanceGenerator.xlsx
+++ b/estadoPruebasInstanceGenerator.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$28</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -66,8 +69,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -95,11 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,7 +395,7 @@
   <dimension ref="B1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,31 +408,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1046,6 +1058,8 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:J28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/estadoPruebasInstanceGenerator.xlsx
+++ b/estadoPruebasInstanceGenerator.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$K$55</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="15">
   <si>
     <t>Pop</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>Finalizado</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>Corriendo</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
   </si>
 </sst>
 </file>
@@ -392,10 +401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J28"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +417,7 @@
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
@@ -435,8 +445,11 @@
       <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -444,7 +457,7 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>0.5</v>
@@ -459,7 +472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -467,7 +480,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0.5</v>
@@ -482,7 +495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -490,7 +503,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0.5</v>
@@ -505,7 +518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -513,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0.5</v>
@@ -528,7 +541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -536,7 +549,7 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0.5</v>
@@ -551,7 +564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -559,7 +572,7 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0.5</v>
@@ -574,7 +587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -582,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0.5</v>
@@ -597,7 +610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -605,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0.5</v>
@@ -620,7 +633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -628,7 +641,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0.5</v>
@@ -643,7 +656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -651,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>1.5</v>
@@ -666,7 +679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -674,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>1.5</v>
@@ -689,7 +702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -697,7 +710,7 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>1.5</v>
@@ -712,7 +725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -720,7 +733,7 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>1.5</v>
@@ -735,7 +748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -743,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>1.5</v>
@@ -758,7 +771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -766,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>1.5</v>
@@ -781,7 +794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -789,7 +802,7 @@
         <v>10</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>1.5</v>
@@ -804,7 +817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -812,7 +825,7 @@
         <v>10</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>1.5</v>
@@ -827,7 +840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>9</v>
       </c>
@@ -835,7 +848,7 @@
         <v>10</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>1.5</v>
@@ -850,7 +863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>9</v>
       </c>
@@ -858,7 +871,7 @@
         <v>10</v>
       </c>
       <c r="D20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>2.5</v>
@@ -873,7 +886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>9</v>
       </c>
@@ -881,7 +894,7 @@
         <v>10</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>2.5</v>
@@ -896,7 +909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>9</v>
       </c>
@@ -904,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>2.5</v>
@@ -919,7 +932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -927,7 +940,7 @@
         <v>10</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>2.5</v>
@@ -950,7 +963,7 @@
         <v>10</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>2.5</v>
@@ -962,7 +975,7 @@
         <v>0.5</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -973,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>2.5</v>
@@ -985,7 +998,7 @@
         <v>0.9</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -996,7 +1009,7 @@
         <v>10</v>
       </c>
       <c r="D26">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>2.5</v>
@@ -1008,7 +1021,7 @@
         <v>0.1</v>
       </c>
       <c r="H26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -1019,7 +1032,7 @@
         <v>10</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E27">
         <v>2.5</v>
@@ -1031,7 +1044,7 @@
         <v>0.5</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -1042,7 +1055,7 @@
         <v>10</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>2.5</v>
@@ -1054,11 +1067,642 @@
         <v>0.9</v>
       </c>
       <c r="H28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0.1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>0.5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.9</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+      <c r="F32">
+        <v>1.5</v>
+      </c>
+      <c r="G32">
+        <v>0.1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+      <c r="F33">
+        <v>1.5</v>
+      </c>
+      <c r="G33">
+        <v>0.5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <v>1.5</v>
+      </c>
+      <c r="G34">
+        <v>0.9</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>50</v>
+      </c>
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+      <c r="F35">
+        <v>2.5</v>
+      </c>
+      <c r="G35">
+        <v>0.1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+      <c r="F36">
+        <v>2.5</v>
+      </c>
+      <c r="G36">
+        <v>0.5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>0.5</v>
+      </c>
+      <c r="F37">
+        <v>2.5</v>
+      </c>
+      <c r="G37">
+        <v>0.9</v>
+      </c>
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>50</v>
+      </c>
+      <c r="E38">
+        <v>1.5</v>
+      </c>
+      <c r="F38">
+        <v>0.5</v>
+      </c>
+      <c r="G38">
+        <v>0.1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
+      </c>
+      <c r="E39">
+        <v>1.5</v>
+      </c>
+      <c r="F39">
+        <v>0.5</v>
+      </c>
+      <c r="G39">
+        <v>0.5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <v>1.5</v>
+      </c>
+      <c r="F40">
+        <v>0.5</v>
+      </c>
+      <c r="G40">
+        <v>0.9</v>
+      </c>
+      <c r="H40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>50</v>
+      </c>
+      <c r="E41">
+        <v>1.5</v>
+      </c>
+      <c r="F41">
+        <v>1.5</v>
+      </c>
+      <c r="G41">
+        <v>0.1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <v>1.5</v>
+      </c>
+      <c r="F42">
+        <v>1.5</v>
+      </c>
+      <c r="G42">
+        <v>0.5</v>
+      </c>
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>50</v>
+      </c>
+      <c r="E43">
+        <v>1.5</v>
+      </c>
+      <c r="F43">
+        <v>1.5</v>
+      </c>
+      <c r="G43">
+        <v>0.9</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>50</v>
+      </c>
+      <c r="E44">
+        <v>1.5</v>
+      </c>
+      <c r="F44">
+        <v>2.5</v>
+      </c>
+      <c r="G44">
+        <v>0.1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>50</v>
+      </c>
+      <c r="E45">
+        <v>1.5</v>
+      </c>
+      <c r="F45">
+        <v>2.5</v>
+      </c>
+      <c r="G45">
+        <v>0.5</v>
+      </c>
+      <c r="H45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>50</v>
+      </c>
+      <c r="E46">
+        <v>1.5</v>
+      </c>
+      <c r="F46">
+        <v>2.5</v>
+      </c>
+      <c r="G46">
+        <v>0.9</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>50</v>
+      </c>
+      <c r="E47">
+        <v>2.5</v>
+      </c>
+      <c r="F47">
+        <v>0.5</v>
+      </c>
+      <c r="G47">
+        <v>0.1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>50</v>
+      </c>
+      <c r="E48">
+        <v>2.5</v>
+      </c>
+      <c r="F48">
+        <v>0.5</v>
+      </c>
+      <c r="G48">
+        <v>0.5</v>
+      </c>
+      <c r="H48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>50</v>
+      </c>
+      <c r="E49">
+        <v>2.5</v>
+      </c>
+      <c r="F49">
+        <v>0.5</v>
+      </c>
+      <c r="G49">
+        <v>0.9</v>
+      </c>
+      <c r="H49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <v>2.5</v>
+      </c>
+      <c r="F50">
+        <v>1.5</v>
+      </c>
+      <c r="G50">
+        <v>0.1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <v>2.5</v>
+      </c>
+      <c r="F51">
+        <v>1.5</v>
+      </c>
+      <c r="G51">
+        <v>0.5</v>
+      </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <v>2.5</v>
+      </c>
+      <c r="F52">
+        <v>1.5</v>
+      </c>
+      <c r="G52">
+        <v>0.9</v>
+      </c>
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>50</v>
+      </c>
+      <c r="E53">
+        <v>2.5</v>
+      </c>
+      <c r="F53">
+        <v>2.5</v>
+      </c>
+      <c r="G53">
+        <v>0.1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>50</v>
+      </c>
+      <c r="E54">
+        <v>2.5</v>
+      </c>
+      <c r="F54">
+        <v>2.5</v>
+      </c>
+      <c r="G54">
+        <v>0.5</v>
+      </c>
+      <c r="H54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>50</v>
+      </c>
+      <c r="E55">
+        <v>2.5</v>
+      </c>
+      <c r="F55">
+        <v>2.5</v>
+      </c>
+      <c r="G55">
+        <v>0.9</v>
+      </c>
+      <c r="H55" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:J28"/>
+  <autoFilter ref="B1:K55">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Corriendo"/>
+        <filter val="Pendiente"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="B2:K55">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/estadoPruebasInstanceGenerator.xlsx
+++ b/estadoPruebasInstanceGenerator.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="14">
   <si>
     <t>Pop</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Notas</t>
-  </si>
-  <si>
-    <t>Corriendo</t>
   </si>
   <si>
     <t>Pendiente</t>
@@ -405,7 +402,7 @@
   <dimension ref="B1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +972,7 @@
         <v>0.5</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -998,7 +995,7 @@
         <v>0.9</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -1021,7 +1018,7 @@
         <v>0.1</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -1044,7 +1041,7 @@
         <v>0.5</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -1067,7 +1064,7 @@
         <v>0.9</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.25">

--- a/estadoPruebasInstanceGenerator.xlsx
+++ b/estadoPruebasInstanceGenerator.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="13">
   <si>
     <t>Pop</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Notas</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
   </si>
 </sst>
 </file>
@@ -398,11 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="B1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -469,7 +465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -492,7 +488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -515,7 +511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -538,7 +534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -561,7 +557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -584,7 +580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -607,7 +603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -630,7 +626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -653,7 +649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -676,7 +672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -699,7 +695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -722,7 +718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -745,7 +741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -768,7 +764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -791,7 +787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -814,7 +810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -837,7 +833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>9</v>
       </c>
@@ -860,7 +856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>9</v>
       </c>
@@ -883,7 +879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>9</v>
       </c>
@@ -906,7 +902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>9</v>
       </c>
@@ -929,7 +925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -1018,7 +1014,7 @@
         <v>0.1</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -1041,7 +1037,7 @@
         <v>0.5</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -1064,10 +1060,10 @@
         <v>0.9</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>9</v>
       </c>
@@ -1090,7 +1086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>9</v>
       </c>
@@ -1113,7 +1109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>9</v>
       </c>
@@ -1136,7 +1132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>9</v>
       </c>
@@ -1159,7 +1155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>9</v>
       </c>
@@ -1182,7 +1178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>9</v>
       </c>
@@ -1205,7 +1201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>9</v>
       </c>
@@ -1228,7 +1224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>9</v>
       </c>
@@ -1251,7 +1247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>9</v>
       </c>
@@ -1274,7 +1270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>9</v>
       </c>
@@ -1297,7 +1293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>9</v>
       </c>
@@ -1320,7 +1316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>9</v>
       </c>
@@ -1343,7 +1339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>9</v>
       </c>
@@ -1366,7 +1362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>9</v>
       </c>
@@ -1389,7 +1385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>9</v>
       </c>
@@ -1412,7 +1408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>9</v>
       </c>
@@ -1435,7 +1431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>9</v>
       </c>
@@ -1458,7 +1454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>9</v>
       </c>
@@ -1481,7 +1477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>9</v>
       </c>
@@ -1504,7 +1500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>9</v>
       </c>
@@ -1527,7 +1523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>9</v>
       </c>
@@ -1550,7 +1546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>9</v>
       </c>
@@ -1573,7 +1569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>9</v>
       </c>
@@ -1596,7 +1592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>9</v>
       </c>
@@ -1619,7 +1615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>9</v>
       </c>
@@ -1642,7 +1638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>9</v>
       </c>
@@ -1665,7 +1661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>9</v>
       </c>
@@ -1690,12 +1686,6 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:K55">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Corriendo"/>
-        <filter val="Pendiente"/>
-      </filters>
-    </filterColumn>
     <sortState ref="B2:K55">
       <sortCondition ref="D1"/>
     </sortState>

--- a/estadoPruebasInstanceGenerator.xlsx
+++ b/estadoPruebasInstanceGenerator.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L03062498\Dropbox\TEC_at_Home\Codes\Matlab\Unreleased\JSSP\JSSP-Matlab-OOP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepos\Unreleased\JSSP\JSSP-Matlab-OOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$K$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$L$55</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="17">
   <si>
     <t>Pop</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>Notas</t>
+  </si>
+  <si>
+    <t>Nombre Comprimido</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>LPAvsMPA_Small_pop30.rar</t>
+  </si>
+  <si>
+    <t>LPAvsMPA_Small_pop50.rar</t>
   </si>
 </sst>
 </file>
@@ -395,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K55"/>
+  <dimension ref="B1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,9 +420,10 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
@@ -439,10 +452,13 @@
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -464,8 +480,14 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -487,8 +509,14 @@
       <c r="H3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -510,8 +538,14 @@
       <c r="H4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -533,8 +567,14 @@
       <c r="H5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -556,8 +596,14 @@
       <c r="H6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -579,8 +625,14 @@
       <c r="H7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -602,8 +654,14 @@
       <c r="H8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -625,8 +683,14 @@
       <c r="H9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -648,8 +712,14 @@
       <c r="H10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -671,8 +741,14 @@
       <c r="H11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -694,8 +770,14 @@
       <c r="H12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -717,8 +799,14 @@
       <c r="H13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -740,8 +828,14 @@
       <c r="H14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -763,8 +857,14 @@
       <c r="H15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -786,8 +886,14 @@
       <c r="H16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -809,8 +915,14 @@
       <c r="H17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -832,8 +944,14 @@
       <c r="H18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>9</v>
       </c>
@@ -855,8 +973,14 @@
       <c r="H19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>9</v>
       </c>
@@ -878,8 +1002,14 @@
       <c r="H20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>9</v>
       </c>
@@ -901,8 +1031,14 @@
       <c r="H21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>9</v>
       </c>
@@ -924,8 +1060,14 @@
       <c r="H22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -947,8 +1089,14 @@
       <c r="H23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>9</v>
       </c>
@@ -970,8 +1118,14 @@
       <c r="H24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>9</v>
       </c>
@@ -993,8 +1147,14 @@
       <c r="H25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>9</v>
       </c>
@@ -1016,8 +1176,14 @@
       <c r="H26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>9</v>
       </c>
@@ -1039,8 +1205,14 @@
       <c r="H27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>9</v>
       </c>
@@ -1062,8 +1234,14 @@
       <c r="H28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>9</v>
       </c>
@@ -1085,8 +1263,14 @@
       <c r="H29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1292,14 @@
       <c r="H30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>9</v>
       </c>
@@ -1131,8 +1321,14 @@
       <c r="H31" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>9</v>
       </c>
@@ -1154,8 +1350,14 @@
       <c r="H32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>9</v>
       </c>
@@ -1177,8 +1379,14 @@
       <c r="H33" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>9</v>
       </c>
@@ -1200,8 +1408,14 @@
       <c r="H34" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>9</v>
       </c>
@@ -1223,8 +1437,14 @@
       <c r="H35" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>9</v>
       </c>
@@ -1246,8 +1466,14 @@
       <c r="H36" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>9</v>
       </c>
@@ -1269,8 +1495,14 @@
       <c r="H37" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>9</v>
       </c>
@@ -1292,8 +1524,14 @@
       <c r="H38" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>9</v>
       </c>
@@ -1315,8 +1553,14 @@
       <c r="H39" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>9</v>
       </c>
@@ -1338,8 +1582,14 @@
       <c r="H40" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>9</v>
       </c>
@@ -1361,8 +1611,14 @@
       <c r="H41" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>9</v>
       </c>
@@ -1384,8 +1640,14 @@
       <c r="H42" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>9</v>
       </c>
@@ -1407,8 +1669,14 @@
       <c r="H43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>9</v>
       </c>
@@ -1430,8 +1698,14 @@
       <c r="H44" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>9</v>
       </c>
@@ -1453,8 +1727,14 @@
       <c r="H45" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>9</v>
       </c>
@@ -1476,8 +1756,14 @@
       <c r="H46" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>9</v>
       </c>
@@ -1499,8 +1785,14 @@
       <c r="H47" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>9</v>
       </c>
@@ -1522,8 +1814,14 @@
       <c r="H48" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>9</v>
       </c>
@@ -1545,8 +1843,14 @@
       <c r="H49" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>9</v>
       </c>
@@ -1568,8 +1872,14 @@
       <c r="H50" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>9</v>
       </c>
@@ -1591,8 +1901,14 @@
       <c r="H51" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>9</v>
       </c>
@@ -1614,8 +1930,14 @@
       <c r="H52" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>9</v>
       </c>
@@ -1637,8 +1959,14 @@
       <c r="H53" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>9</v>
       </c>
@@ -1660,8 +1988,14 @@
       <c r="H54" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>9</v>
       </c>
@@ -1683,9 +2017,15 @@
       <c r="H55" t="s">
         <v>11</v>
       </c>
+      <c r="J55" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:K55">
+  <autoFilter ref="B1:L55">
     <sortState ref="B2:K55">
       <sortCondition ref="D1"/>
     </sortState>

--- a/estadoPruebasInstanceGenerator.xlsx
+++ b/estadoPruebasInstanceGenerator.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L03062498\Dropbox\TEC_at_Home\Codes\Matlab\Unreleased\JSSP\JSSP-Matlab-OOP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nufo\Documents\GitHub\JSSP-Matlab-OOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECB55AF-1DC6-409A-994B-B007096DB698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$K$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$L$55</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="18">
   <si>
     <t>Pop</t>
   </si>
@@ -68,16 +69,25 @@
     <t>Notas</t>
   </si>
   <si>
-    <t>Corriendo</t>
+    <t>Nombre Comprimido</t>
   </si>
   <si>
-    <t>Pendiente</t>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>LPAvsMPA_Small_pop30.rar</t>
+  </si>
+  <si>
+    <t>LPAvsMPA_Small_pop50.rar</t>
+  </si>
+  <si>
+    <t>LPAvsMPA_Small_pop10.zip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,12 +410,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B1:K55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:L82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+      <selection activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,9 +424,10 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
@@ -446,10 +456,13 @@
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -471,8 +484,17 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -494,8 +516,17 @@
       <c r="H3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -517,8 +548,17 @@
       <c r="H4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -540,8 +580,17 @@
       <c r="H5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -563,8 +612,17 @@
       <c r="H6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -586,8 +644,17 @@
       <c r="H7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -609,8 +676,17 @@
       <c r="H8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -632,8 +708,17 @@
       <c r="H9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -655,8 +740,17 @@
       <c r="H10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -678,8 +772,17 @@
       <c r="H11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -701,8 +804,17 @@
       <c r="H12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -724,8 +836,17 @@
       <c r="H13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -747,8 +868,17 @@
       <c r="H14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -770,8 +900,17 @@
       <c r="H15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -793,8 +932,17 @@
       <c r="H16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -816,8 +964,17 @@
       <c r="H17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -839,8 +996,17 @@
       <c r="H18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>9</v>
       </c>
@@ -862,8 +1028,17 @@
       <c r="H19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>9</v>
       </c>
@@ -885,8 +1060,17 @@
       <c r="H20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>9</v>
       </c>
@@ -908,8 +1092,17 @@
       <c r="H21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>9</v>
       </c>
@@ -931,8 +1124,17 @@
       <c r="H22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -954,8 +1156,17 @@
       <c r="H23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>9</v>
       </c>
@@ -975,10 +1186,19 @@
         <v>0.5</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>9</v>
       </c>
@@ -998,10 +1218,19 @@
         <v>0.9</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>9</v>
       </c>
@@ -1021,10 +1250,19 @@
         <v>0.1</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>9</v>
       </c>
@@ -1044,10 +1282,19 @@
         <v>0.5</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>9</v>
       </c>
@@ -1067,10 +1314,19 @@
         <v>0.9</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>9</v>
       </c>
@@ -1092,8 +1348,17 @@
       <c r="H29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>9</v>
       </c>
@@ -1115,8 +1380,17 @@
       <c r="H30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>9</v>
       </c>
@@ -1138,8 +1412,17 @@
       <c r="H31" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>9</v>
       </c>
@@ -1161,8 +1444,17 @@
       <c r="H32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>9</v>
       </c>
@@ -1184,8 +1476,17 @@
       <c r="H33" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>9</v>
       </c>
@@ -1207,8 +1508,17 @@
       <c r="H34" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>9</v>
       </c>
@@ -1230,8 +1540,17 @@
       <c r="H35" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>9</v>
       </c>
@@ -1253,8 +1572,17 @@
       <c r="H36" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>9</v>
       </c>
@@ -1276,8 +1604,17 @@
       <c r="H37" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>9</v>
       </c>
@@ -1299,8 +1636,17 @@
       <c r="H38" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>9</v>
       </c>
@@ -1322,8 +1668,17 @@
       <c r="H39" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>9</v>
       </c>
@@ -1345,8 +1700,17 @@
       <c r="H40" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>9</v>
       </c>
@@ -1368,8 +1732,17 @@
       <c r="H41" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>9</v>
       </c>
@@ -1391,8 +1764,17 @@
       <c r="H42" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>9</v>
       </c>
@@ -1414,8 +1796,17 @@
       <c r="H43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>9</v>
       </c>
@@ -1437,8 +1828,17 @@
       <c r="H44" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>9</v>
       </c>
@@ -1460,8 +1860,17 @@
       <c r="H45" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>9</v>
       </c>
@@ -1483,8 +1892,17 @@
       <c r="H46" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>9</v>
       </c>
@@ -1506,8 +1924,17 @@
       <c r="H47" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>9</v>
       </c>
@@ -1529,8 +1956,17 @@
       <c r="H48" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>9</v>
       </c>
@@ -1552,8 +1988,17 @@
       <c r="H49" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>9</v>
       </c>
@@ -1575,8 +2020,17 @@
       <c r="H50" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>9</v>
       </c>
@@ -1598,8 +2052,17 @@
       <c r="H51" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>9</v>
       </c>
@@ -1621,8 +2084,17 @@
       <c r="H52" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>9</v>
       </c>
@@ -1644,8 +2116,17 @@
       <c r="H53" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>9</v>
       </c>
@@ -1667,8 +2148,17 @@
       <c r="H54" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>9</v>
       </c>
@@ -1690,16 +2180,883 @@
       <c r="H55" t="s">
         <v>11</v>
       </c>
+      <c r="I55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>0.5</v>
+      </c>
+      <c r="F56">
+        <v>0.5</v>
+      </c>
+      <c r="G56">
+        <v>0.1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <v>0.5</v>
+      </c>
+      <c r="F57">
+        <v>0.5</v>
+      </c>
+      <c r="G57">
+        <v>0.5</v>
+      </c>
+      <c r="H57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>0.5</v>
+      </c>
+      <c r="F58">
+        <v>0.5</v>
+      </c>
+      <c r="G58">
+        <v>0.9</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>0.5</v>
+      </c>
+      <c r="F59">
+        <v>1.5</v>
+      </c>
+      <c r="G59">
+        <v>0.1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>0.5</v>
+      </c>
+      <c r="F60">
+        <v>1.5</v>
+      </c>
+      <c r="G60">
+        <v>0.5</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>0.5</v>
+      </c>
+      <c r="F61">
+        <v>1.5</v>
+      </c>
+      <c r="G61">
+        <v>0.9</v>
+      </c>
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>0.5</v>
+      </c>
+      <c r="F62">
+        <v>2.5</v>
+      </c>
+      <c r="G62">
+        <v>0.1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>0.5</v>
+      </c>
+      <c r="F63">
+        <v>2.5</v>
+      </c>
+      <c r="G63">
+        <v>0.5</v>
+      </c>
+      <c r="H63" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>0.5</v>
+      </c>
+      <c r="F64">
+        <v>2.5</v>
+      </c>
+      <c r="G64">
+        <v>0.9</v>
+      </c>
+      <c r="H64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>1.5</v>
+      </c>
+      <c r="F65">
+        <v>0.5</v>
+      </c>
+      <c r="G65">
+        <v>0.1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="E66">
+        <v>1.5</v>
+      </c>
+      <c r="F66">
+        <v>0.5</v>
+      </c>
+      <c r="G66">
+        <v>0.5</v>
+      </c>
+      <c r="H66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>1.5</v>
+      </c>
+      <c r="F67">
+        <v>0.5</v>
+      </c>
+      <c r="G67">
+        <v>0.9</v>
+      </c>
+      <c r="H67" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <v>1.5</v>
+      </c>
+      <c r="F68">
+        <v>1.5</v>
+      </c>
+      <c r="G68">
+        <v>0.1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>1.5</v>
+      </c>
+      <c r="F69">
+        <v>1.5</v>
+      </c>
+      <c r="G69">
+        <v>0.5</v>
+      </c>
+      <c r="H69" t="s">
+        <v>11</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>1.5</v>
+      </c>
+      <c r="F70">
+        <v>1.5</v>
+      </c>
+      <c r="G70">
+        <v>0.9</v>
+      </c>
+      <c r="H70" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>1.5</v>
+      </c>
+      <c r="F71">
+        <v>2.5</v>
+      </c>
+      <c r="G71">
+        <v>0.1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>1.5</v>
+      </c>
+      <c r="F72">
+        <v>2.5</v>
+      </c>
+      <c r="G72">
+        <v>0.5</v>
+      </c>
+      <c r="H72" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>1.5</v>
+      </c>
+      <c r="F73">
+        <v>2.5</v>
+      </c>
+      <c r="G73">
+        <v>0.9</v>
+      </c>
+      <c r="H73" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" t="s">
+        <v>14</v>
+      </c>
+      <c r="J73" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="E74">
+        <v>2.5</v>
+      </c>
+      <c r="F74">
+        <v>0.5</v>
+      </c>
+      <c r="G74">
+        <v>0.1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" t="s">
+        <v>14</v>
+      </c>
+      <c r="J74" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75">
+        <v>2.5</v>
+      </c>
+      <c r="F75">
+        <v>0.5</v>
+      </c>
+      <c r="G75">
+        <v>0.5</v>
+      </c>
+      <c r="H75" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
+      </c>
+      <c r="E76">
+        <v>2.5</v>
+      </c>
+      <c r="F76">
+        <v>0.5</v>
+      </c>
+      <c r="G76">
+        <v>0.9</v>
+      </c>
+      <c r="H76" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76" t="s">
+        <v>14</v>
+      </c>
+      <c r="K76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>10</v>
+      </c>
+      <c r="E77">
+        <v>2.5</v>
+      </c>
+      <c r="F77">
+        <v>1.5</v>
+      </c>
+      <c r="G77">
+        <v>0.1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>10</v>
+      </c>
+      <c r="E78">
+        <v>2.5</v>
+      </c>
+      <c r="F78">
+        <v>1.5</v>
+      </c>
+      <c r="G78">
+        <v>0.5</v>
+      </c>
+      <c r="H78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>10</v>
+      </c>
+      <c r="E79">
+        <v>2.5</v>
+      </c>
+      <c r="F79">
+        <v>1.5</v>
+      </c>
+      <c r="G79">
+        <v>0.9</v>
+      </c>
+      <c r="H79" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
+      <c r="J79" t="s">
+        <v>14</v>
+      </c>
+      <c r="K79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>10</v>
+      </c>
+      <c r="E80">
+        <v>2.5</v>
+      </c>
+      <c r="F80">
+        <v>2.5</v>
+      </c>
+      <c r="G80">
+        <v>0.1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <v>2.5</v>
+      </c>
+      <c r="F81">
+        <v>2.5</v>
+      </c>
+      <c r="G81">
+        <v>0.5</v>
+      </c>
+      <c r="H81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>10</v>
+      </c>
+      <c r="E82">
+        <v>2.5</v>
+      </c>
+      <c r="F82">
+        <v>2.5</v>
+      </c>
+      <c r="G82">
+        <v>0.9</v>
+      </c>
+      <c r="H82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" t="s">
+        <v>14</v>
+      </c>
+      <c r="J82" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:K55">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Corriendo"/>
-        <filter val="Pendiente"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="B2:K55">
+  <autoFilter ref="B1:L55" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:K55">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>

--- a/estadoPruebasInstanceGenerator.xlsx
+++ b/estadoPruebasInstanceGenerator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nufo\Documents\GitHub\JSSP-Matlab-OOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECB55AF-1DC6-409A-994B-B007096DB698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63207655-2970-44D3-995C-5516E287EC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="20">
   <si>
     <t>Pop</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>LPAvsMPA_Small_pop10.zip</t>
+  </si>
+  <si>
+    <t>SPTvsLPT</t>
+  </si>
+  <si>
+    <t>SPTvsLPT_Small_pop10.zip</t>
   </si>
 </sst>
 </file>
@@ -411,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L82"/>
+  <dimension ref="B1:X82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N76" sqref="N76"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,9 +431,14 @@
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
@@ -461,8 +472,41 @@
       <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -493,8 +537,38 @@
       <c r="K2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>0.5</v>
+      </c>
+      <c r="R2">
+        <v>0.5</v>
+      </c>
+      <c r="S2">
+        <v>0.1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -525,8 +599,38 @@
       <c r="K3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>0.5</v>
+      </c>
+      <c r="R3">
+        <v>0.5</v>
+      </c>
+      <c r="S3">
+        <v>0.5</v>
+      </c>
+      <c r="T3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -557,8 +661,38 @@
       <c r="K4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>0.5</v>
+      </c>
+      <c r="R4">
+        <v>0.5</v>
+      </c>
+      <c r="S4">
+        <v>0.9</v>
+      </c>
+      <c r="T4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -589,8 +723,38 @@
       <c r="K5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>0.5</v>
+      </c>
+      <c r="R5">
+        <v>1.5</v>
+      </c>
+      <c r="S5">
+        <v>0.1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -621,8 +785,38 @@
       <c r="K6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>0.5</v>
+      </c>
+      <c r="R6">
+        <v>1.5</v>
+      </c>
+      <c r="S6">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" t="s">
+        <v>14</v>
+      </c>
+      <c r="V6" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -653,8 +847,38 @@
       <c r="K7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>0.5</v>
+      </c>
+      <c r="R7">
+        <v>1.5</v>
+      </c>
+      <c r="S7">
+        <v>0.9</v>
+      </c>
+      <c r="T7" t="s">
+        <v>11</v>
+      </c>
+      <c r="U7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -685,8 +909,38 @@
       <c r="K8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>0.5</v>
+      </c>
+      <c r="R8">
+        <v>2.5</v>
+      </c>
+      <c r="S8">
+        <v>0.1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>11</v>
+      </c>
+      <c r="U8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V8" t="s">
+        <v>14</v>
+      </c>
+      <c r="W8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -717,8 +971,38 @@
       <c r="K9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>0.5</v>
+      </c>
+      <c r="R9">
+        <v>2.5</v>
+      </c>
+      <c r="S9">
+        <v>0.5</v>
+      </c>
+      <c r="T9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -749,8 +1033,38 @@
       <c r="K10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>0.5</v>
+      </c>
+      <c r="R10">
+        <v>2.5</v>
+      </c>
+      <c r="S10">
+        <v>0.9</v>
+      </c>
+      <c r="T10" t="s">
+        <v>11</v>
+      </c>
+      <c r="U10" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -781,8 +1095,38 @@
       <c r="K11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>1.5</v>
+      </c>
+      <c r="R11">
+        <v>0.5</v>
+      </c>
+      <c r="S11">
+        <v>0.1</v>
+      </c>
+      <c r="T11" t="s">
+        <v>11</v>
+      </c>
+      <c r="U11" t="s">
+        <v>14</v>
+      </c>
+      <c r="V11" t="s">
+        <v>14</v>
+      </c>
+      <c r="W11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -813,8 +1157,38 @@
       <c r="K12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>1.5</v>
+      </c>
+      <c r="R12">
+        <v>0.5</v>
+      </c>
+      <c r="S12">
+        <v>0.5</v>
+      </c>
+      <c r="T12" t="s">
+        <v>11</v>
+      </c>
+      <c r="U12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -845,8 +1219,38 @@
       <c r="K13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>1.5</v>
+      </c>
+      <c r="R13">
+        <v>0.5</v>
+      </c>
+      <c r="S13">
+        <v>0.9</v>
+      </c>
+      <c r="T13" t="s">
+        <v>11</v>
+      </c>
+      <c r="U13" t="s">
+        <v>14</v>
+      </c>
+      <c r="V13" t="s">
+        <v>14</v>
+      </c>
+      <c r="W13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -877,8 +1281,38 @@
       <c r="K14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>1.5</v>
+      </c>
+      <c r="R14">
+        <v>1.5</v>
+      </c>
+      <c r="S14">
+        <v>0.1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>11</v>
+      </c>
+      <c r="U14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -909,8 +1343,38 @@
       <c r="K15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <v>1.5</v>
+      </c>
+      <c r="R15">
+        <v>1.5</v>
+      </c>
+      <c r="S15">
+        <v>0.5</v>
+      </c>
+      <c r="T15" t="s">
+        <v>11</v>
+      </c>
+      <c r="U15" t="s">
+        <v>14</v>
+      </c>
+      <c r="V15" t="s">
+        <v>14</v>
+      </c>
+      <c r="W15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -941,8 +1405,38 @@
       <c r="K16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <v>1.5</v>
+      </c>
+      <c r="R16">
+        <v>1.5</v>
+      </c>
+      <c r="S16">
+        <v>0.9</v>
+      </c>
+      <c r="T16" t="s">
+        <v>11</v>
+      </c>
+      <c r="U16" t="s">
+        <v>14</v>
+      </c>
+      <c r="V16" t="s">
+        <v>14</v>
+      </c>
+      <c r="W16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -973,8 +1467,38 @@
       <c r="K17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17">
+        <v>10</v>
+      </c>
+      <c r="Q17">
+        <v>1.5</v>
+      </c>
+      <c r="R17">
+        <v>2.5</v>
+      </c>
+      <c r="S17">
+        <v>0.1</v>
+      </c>
+      <c r="T17" t="s">
+        <v>11</v>
+      </c>
+      <c r="U17" t="s">
+        <v>14</v>
+      </c>
+      <c r="V17" t="s">
+        <v>14</v>
+      </c>
+      <c r="W17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -1005,8 +1529,38 @@
       <c r="K18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18">
+        <v>10</v>
+      </c>
+      <c r="Q18">
+        <v>1.5</v>
+      </c>
+      <c r="R18">
+        <v>2.5</v>
+      </c>
+      <c r="S18">
+        <v>0.5</v>
+      </c>
+      <c r="T18" t="s">
+        <v>11</v>
+      </c>
+      <c r="U18" t="s">
+        <v>14</v>
+      </c>
+      <c r="V18" t="s">
+        <v>14</v>
+      </c>
+      <c r="W18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>9</v>
       </c>
@@ -1037,8 +1591,38 @@
       <c r="K19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19">
+        <v>10</v>
+      </c>
+      <c r="Q19">
+        <v>1.5</v>
+      </c>
+      <c r="R19">
+        <v>2.5</v>
+      </c>
+      <c r="S19">
+        <v>0.9</v>
+      </c>
+      <c r="T19" t="s">
+        <v>11</v>
+      </c>
+      <c r="U19" t="s">
+        <v>14</v>
+      </c>
+      <c r="V19" t="s">
+        <v>14</v>
+      </c>
+      <c r="W19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>9</v>
       </c>
@@ -1069,8 +1653,38 @@
       <c r="K20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20">
+        <v>10</v>
+      </c>
+      <c r="Q20">
+        <v>2.5</v>
+      </c>
+      <c r="R20">
+        <v>0.5</v>
+      </c>
+      <c r="S20">
+        <v>0.1</v>
+      </c>
+      <c r="T20" t="s">
+        <v>11</v>
+      </c>
+      <c r="U20" t="s">
+        <v>14</v>
+      </c>
+      <c r="V20" t="s">
+        <v>14</v>
+      </c>
+      <c r="W20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>9</v>
       </c>
@@ -1101,8 +1715,38 @@
       <c r="K21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21">
+        <v>10</v>
+      </c>
+      <c r="Q21">
+        <v>2.5</v>
+      </c>
+      <c r="R21">
+        <v>0.5</v>
+      </c>
+      <c r="S21">
+        <v>0.5</v>
+      </c>
+      <c r="T21" t="s">
+        <v>11</v>
+      </c>
+      <c r="U21" t="s">
+        <v>14</v>
+      </c>
+      <c r="V21" t="s">
+        <v>14</v>
+      </c>
+      <c r="W21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>9</v>
       </c>
@@ -1133,8 +1777,38 @@
       <c r="K22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22">
+        <v>10</v>
+      </c>
+      <c r="Q22">
+        <v>2.5</v>
+      </c>
+      <c r="R22">
+        <v>0.5</v>
+      </c>
+      <c r="S22">
+        <v>0.9</v>
+      </c>
+      <c r="T22" t="s">
+        <v>11</v>
+      </c>
+      <c r="U22" t="s">
+        <v>14</v>
+      </c>
+      <c r="V22" t="s">
+        <v>14</v>
+      </c>
+      <c r="W22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -1165,8 +1839,38 @@
       <c r="K23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23">
+        <v>10</v>
+      </c>
+      <c r="Q23">
+        <v>2.5</v>
+      </c>
+      <c r="R23">
+        <v>1.5</v>
+      </c>
+      <c r="S23">
+        <v>0.1</v>
+      </c>
+      <c r="T23" t="s">
+        <v>11</v>
+      </c>
+      <c r="U23" t="s">
+        <v>14</v>
+      </c>
+      <c r="V23" t="s">
+        <v>14</v>
+      </c>
+      <c r="W23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>9</v>
       </c>
@@ -1197,8 +1901,38 @@
       <c r="K24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="Q24">
+        <v>2.5</v>
+      </c>
+      <c r="R24">
+        <v>1.5</v>
+      </c>
+      <c r="S24">
+        <v>0.5</v>
+      </c>
+      <c r="T24" t="s">
+        <v>11</v>
+      </c>
+      <c r="U24" t="s">
+        <v>14</v>
+      </c>
+      <c r="V24" t="s">
+        <v>14</v>
+      </c>
+      <c r="W24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>9</v>
       </c>
@@ -1229,8 +1963,38 @@
       <c r="K25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25">
+        <v>10</v>
+      </c>
+      <c r="Q25">
+        <v>2.5</v>
+      </c>
+      <c r="R25">
+        <v>1.5</v>
+      </c>
+      <c r="S25">
+        <v>0.9</v>
+      </c>
+      <c r="T25" t="s">
+        <v>11</v>
+      </c>
+      <c r="U25" t="s">
+        <v>14</v>
+      </c>
+      <c r="V25" t="s">
+        <v>14</v>
+      </c>
+      <c r="W25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>9</v>
       </c>
@@ -1261,8 +2025,38 @@
       <c r="K26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26">
+        <v>10</v>
+      </c>
+      <c r="Q26">
+        <v>2.5</v>
+      </c>
+      <c r="R26">
+        <v>2.5</v>
+      </c>
+      <c r="S26">
+        <v>0.1</v>
+      </c>
+      <c r="T26" t="s">
+        <v>11</v>
+      </c>
+      <c r="U26" t="s">
+        <v>14</v>
+      </c>
+      <c r="V26" t="s">
+        <v>14</v>
+      </c>
+      <c r="W26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>9</v>
       </c>
@@ -1293,8 +2087,38 @@
       <c r="K27" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>18</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27">
+        <v>10</v>
+      </c>
+      <c r="Q27">
+        <v>2.5</v>
+      </c>
+      <c r="R27">
+        <v>2.5</v>
+      </c>
+      <c r="S27">
+        <v>0.5</v>
+      </c>
+      <c r="T27" t="s">
+        <v>11</v>
+      </c>
+      <c r="U27" t="s">
+        <v>14</v>
+      </c>
+      <c r="V27" t="s">
+        <v>14</v>
+      </c>
+      <c r="W27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>9</v>
       </c>
@@ -1325,8 +2149,38 @@
       <c r="K28" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28">
+        <v>10</v>
+      </c>
+      <c r="Q28">
+        <v>2.5</v>
+      </c>
+      <c r="R28">
+        <v>2.5</v>
+      </c>
+      <c r="S28">
+        <v>0.9</v>
+      </c>
+      <c r="T28" t="s">
+        <v>11</v>
+      </c>
+      <c r="U28" t="s">
+        <v>14</v>
+      </c>
+      <c r="V28" t="s">
+        <v>14</v>
+      </c>
+      <c r="W28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>9</v>
       </c>
@@ -1358,7 +2212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>9</v>
       </c>
@@ -1390,7 +2244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>9</v>
       </c>
@@ -1422,7 +2276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>9</v>
       </c>

--- a/estadoPruebasInstanceGenerator.xlsx
+++ b/estadoPruebasInstanceGenerator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nufo\Documents\GitHub\JSSP-Matlab-OOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F080E4EE-71B3-4BEC-B1DC-3AAF978B4910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8130BA4C-1571-484E-B875-4159FB77BF49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="29">
   <si>
     <t>Pop</t>
   </si>
@@ -95,6 +95,27 @@
   </si>
   <si>
     <t>LPTvsSPT_Small_pop10.zip</t>
+  </si>
+  <si>
+    <t>LPTvsSPT_Small_pop30.zip</t>
+  </si>
+  <si>
+    <t>LPTvsSPT_Small_pop50.zip</t>
+  </si>
+  <si>
+    <t>MPAvsLPA</t>
+  </si>
+  <si>
+    <t>MPAvsLPA_Small_pop10.zip</t>
+  </si>
+  <si>
+    <t>MPAvsLPA_Small_pop30.zip</t>
+  </si>
+  <si>
+    <t>MPAvsLPA_Small_pop50.zip</t>
+  </si>
+  <si>
+    <t>SPTvsLPT_Small_pop50.zip</t>
   </si>
 </sst>
 </file>
@@ -458,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AJ82"/>
+  <dimension ref="B1:AV82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK12" sqref="AK12:AK13"/>
+    <sheetView tabSelected="1" topLeftCell="J35" workbookViewId="0">
+      <selection activeCell="X47" sqref="X47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,9 +502,14 @@
     <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
@@ -583,8 +609,41 @@
       <c r="AJ1" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="AL1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -678,8 +737,39 @@
         <v>21</v>
       </c>
       <c r="AJ2" s="1"/>
+      <c r="AL2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV2" s="1"/>
     </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -773,8 +863,39 @@
         <v>21</v>
       </c>
       <c r="AJ3" s="1"/>
+      <c r="AL3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV3" s="1"/>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +989,39 @@
         <v>21</v>
       </c>
       <c r="AJ4" s="1"/>
+      <c r="AL4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV4" s="1"/>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -963,8 +1115,39 @@
         <v>21</v>
       </c>
       <c r="AJ5" s="1"/>
+      <c r="AL5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV5" s="1"/>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1058,8 +1241,39 @@
         <v>21</v>
       </c>
       <c r="AJ6" s="1"/>
+      <c r="AL6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV6" s="1"/>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1153,8 +1367,39 @@
         <v>21</v>
       </c>
       <c r="AJ7" s="1"/>
+      <c r="AL7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV7" s="1"/>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1248,8 +1493,39 @@
         <v>21</v>
       </c>
       <c r="AJ8" s="1"/>
+      <c r="AL8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV8" s="1"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1343,8 +1619,39 @@
         <v>21</v>
       </c>
       <c r="AJ9" s="1"/>
+      <c r="AL9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV9" s="1"/>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1438,8 +1745,39 @@
         <v>21</v>
       </c>
       <c r="AJ10" s="1"/>
+      <c r="AL10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV10" s="1"/>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1533,8 +1871,39 @@
         <v>21</v>
       </c>
       <c r="AJ11" s="1"/>
+      <c r="AL11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV11" s="1"/>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1628,8 +1997,39 @@
         <v>21</v>
       </c>
       <c r="AJ12" s="1"/>
+      <c r="AL12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV12" s="1"/>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1723,8 +2123,39 @@
         <v>21</v>
       </c>
       <c r="AJ13" s="1"/>
+      <c r="AL13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV13" s="1"/>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1818,8 +2249,39 @@
         <v>21</v>
       </c>
       <c r="AJ14" s="1"/>
+      <c r="AL14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV14" s="1"/>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1913,8 +2375,39 @@
         <v>21</v>
       </c>
       <c r="AJ15" s="1"/>
+      <c r="AL15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV15" s="1"/>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
@@ -2008,8 +2501,39 @@
         <v>21</v>
       </c>
       <c r="AJ16" s="1"/>
+      <c r="AL16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV16" s="1"/>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
@@ -2103,8 +2627,39 @@
         <v>21</v>
       </c>
       <c r="AJ17" s="1"/>
+      <c r="AL17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV17" s="1"/>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
@@ -2198,8 +2753,39 @@
         <v>21</v>
       </c>
       <c r="AJ18" s="1"/>
+      <c r="AL18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV18" s="1"/>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
@@ -2293,8 +2879,39 @@
         <v>21</v>
       </c>
       <c r="AJ19" s="1"/>
+      <c r="AL19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV19" s="1"/>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
@@ -2388,8 +3005,39 @@
         <v>21</v>
       </c>
       <c r="AJ20" s="1"/>
+      <c r="AL20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV20" s="1"/>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
@@ -2483,8 +3131,39 @@
         <v>21</v>
       </c>
       <c r="AJ21" s="1"/>
+      <c r="AL21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV21" s="1"/>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
@@ -2578,8 +3257,39 @@
         <v>21</v>
       </c>
       <c r="AJ22" s="1"/>
+      <c r="AL22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV22" s="1"/>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
@@ -2673,8 +3383,39 @@
         <v>21</v>
       </c>
       <c r="AJ23" s="1"/>
+      <c r="AL23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV23" s="1"/>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
@@ -2768,8 +3509,39 @@
         <v>21</v>
       </c>
       <c r="AJ24" s="1"/>
+      <c r="AL24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV24" s="1"/>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
@@ -2863,8 +3635,39 @@
         <v>21</v>
       </c>
       <c r="AJ25" s="1"/>
+      <c r="AL25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV25" s="1"/>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
@@ -2958,8 +3761,39 @@
         <v>21</v>
       </c>
       <c r="AJ26" s="1"/>
+      <c r="AL26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV26" s="1"/>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
@@ -3053,8 +3887,39 @@
         <v>21</v>
       </c>
       <c r="AJ27" s="1"/>
+      <c r="AL27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV27" s="1"/>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
@@ -3148,8 +4013,39 @@
         <v>21</v>
       </c>
       <c r="AJ28" s="1"/>
+      <c r="AL28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV28" s="1"/>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
@@ -3181,8 +4077,101 @@
         <v>16</v>
       </c>
       <c r="L29" s="1"/>
+      <c r="N29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X29" s="1"/>
+      <c r="Z29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ29" s="1"/>
+      <c r="AL29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV29" s="1"/>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>9</v>
       </c>
@@ -3214,8 +4203,101 @@
         <v>16</v>
       </c>
       <c r="L30" s="1"/>
+      <c r="N30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P30" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X30" s="1"/>
+      <c r="Z30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ30" s="1"/>
+      <c r="AL30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV30" s="1"/>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>9</v>
       </c>
@@ -3247,8 +4329,101 @@
         <v>16</v>
       </c>
       <c r="L31" s="1"/>
+      <c r="N31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X31" s="1"/>
+      <c r="Z31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ31" s="1"/>
+      <c r="AL31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV31" s="1"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
@@ -3280,8 +4455,101 @@
         <v>16</v>
       </c>
       <c r="L32" s="1"/>
+      <c r="N32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R32" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X32" s="1"/>
+      <c r="Z32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ32" s="1"/>
+      <c r="AL32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV32" s="1"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>9</v>
       </c>
@@ -3313,8 +4581,101 @@
         <v>16</v>
       </c>
       <c r="L33" s="1"/>
+      <c r="N33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P33" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R33" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X33" s="1"/>
+      <c r="Z33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ33" s="1"/>
+      <c r="AL33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN33" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP33" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV33" s="1"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
@@ -3346,8 +4707,101 @@
         <v>16</v>
       </c>
       <c r="L34" s="1"/>
+      <c r="N34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R34" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X34" s="1"/>
+      <c r="Z34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ34" s="1"/>
+      <c r="AL34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN34" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP34" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV34" s="1"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>9</v>
       </c>
@@ -3379,8 +4833,101 @@
         <v>16</v>
       </c>
       <c r="L35" s="1"/>
+      <c r="N35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P35" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R35" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X35" s="1"/>
+      <c r="Z35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ35" s="1"/>
+      <c r="AL35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN35" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV35" s="1"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>9</v>
       </c>
@@ -3412,8 +4959,101 @@
         <v>16</v>
       </c>
       <c r="L36" s="1"/>
+      <c r="N36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P36" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R36" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X36" s="1"/>
+      <c r="Z36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ36" s="1"/>
+      <c r="AL36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN36" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP36" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV36" s="1"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>9</v>
       </c>
@@ -3445,8 +5085,101 @@
         <v>16</v>
       </c>
       <c r="L37" s="1"/>
+      <c r="N37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P37" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R37" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X37" s="1"/>
+      <c r="Z37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ37" s="1"/>
+      <c r="AL37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN37" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP37" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ37" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV37" s="1"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>9</v>
       </c>
@@ -3478,8 +5211,101 @@
         <v>16</v>
       </c>
       <c r="L38" s="1"/>
+      <c r="N38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X38" s="1"/>
+      <c r="Z38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ38" s="1"/>
+      <c r="AL38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN38" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO38" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ38" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV38" s="1"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>9</v>
       </c>
@@ -3511,8 +5337,101 @@
         <v>16</v>
       </c>
       <c r="L39" s="1"/>
+      <c r="N39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P39" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X39" s="1"/>
+      <c r="Z39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ39" s="1"/>
+      <c r="AL39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN39" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO39" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV39" s="1"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>9</v>
       </c>
@@ -3544,8 +5463,101 @@
         <v>16</v>
       </c>
       <c r="L40" s="1"/>
+      <c r="N40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P40" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X40" s="1"/>
+      <c r="Z40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AF40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ40" s="1"/>
+      <c r="AL40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN40" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO40" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ40" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV40" s="1"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
@@ -3577,8 +5589,101 @@
         <v>16</v>
       </c>
       <c r="L41" s="1"/>
+      <c r="N41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P41" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X41" s="1"/>
+      <c r="Z41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ41" s="1"/>
+      <c r="AL41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN41" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO41" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP41" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ41" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV41" s="1"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>9</v>
       </c>
@@ -3610,8 +5715,101 @@
         <v>16</v>
       </c>
       <c r="L42" s="1"/>
+      <c r="N42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P42" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R42" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X42" s="1"/>
+      <c r="Z42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ42" s="1"/>
+      <c r="AL42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN42" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO42" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP42" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV42" s="1"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>9</v>
       </c>
@@ -3643,8 +5841,101 @@
         <v>16</v>
       </c>
       <c r="L43" s="1"/>
+      <c r="N43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P43" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X43" s="1"/>
+      <c r="Z43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AF43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ43" s="1"/>
+      <c r="AL43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN43" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV43" s="1"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>9</v>
       </c>
@@ -3676,8 +5967,101 @@
         <v>16</v>
       </c>
       <c r="L44" s="1"/>
+      <c r="N44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P44" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R44" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X44" s="1"/>
+      <c r="Z44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ44" s="1"/>
+      <c r="AL44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN44" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO44" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP44" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ44" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV44" s="1"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>9</v>
       </c>
@@ -3709,8 +6093,101 @@
         <v>16</v>
       </c>
       <c r="L45" s="1"/>
+      <c r="N45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P45" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R45" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X45" s="1"/>
+      <c r="Z45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ45" s="1"/>
+      <c r="AL45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN45" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO45" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP45" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV45" s="1"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>9</v>
       </c>
@@ -3742,8 +6219,101 @@
         <v>16</v>
       </c>
       <c r="L46" s="1"/>
+      <c r="N46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P46" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R46" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X46" s="1"/>
+      <c r="Z46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AF46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ46" s="1"/>
+      <c r="AL46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN46" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO46" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP46" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ46" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV46" s="1"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>9</v>
       </c>
@@ -3775,8 +6345,101 @@
         <v>16</v>
       </c>
       <c r="L47" s="1"/>
+      <c r="N47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P47" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X47" s="1"/>
+      <c r="Z47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ47" s="1"/>
+      <c r="AL47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN47" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO47" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ47" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV47" s="1"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>9</v>
       </c>
@@ -3808,8 +6471,101 @@
         <v>16</v>
       </c>
       <c r="L48" s="1"/>
+      <c r="N48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P48" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X48" s="1"/>
+      <c r="Z48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ48" s="1"/>
+      <c r="AL48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN48" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO48" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV48" s="1"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>9</v>
       </c>
@@ -3841,8 +6597,101 @@
         <v>16</v>
       </c>
       <c r="L49" s="1"/>
+      <c r="N49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P49" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X49" s="1"/>
+      <c r="Z49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AF49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ49" s="1"/>
+      <c r="AL49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN49" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO49" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ49" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV49" s="1"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>9</v>
       </c>
@@ -3874,8 +6723,101 @@
         <v>16</v>
       </c>
       <c r="L50" s="1"/>
+      <c r="N50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P50" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R50" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S50" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X50" s="1"/>
+      <c r="Z50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ50" s="1"/>
+      <c r="AL50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN50" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO50" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP50" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ50" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV50" s="1"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>9</v>
       </c>
@@ -3907,8 +6849,101 @@
         <v>16</v>
       </c>
       <c r="L51" s="1"/>
+      <c r="N51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P51" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R51" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X51" s="1"/>
+      <c r="Z51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ51" s="1"/>
+      <c r="AL51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN51" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO51" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP51" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV51" s="1"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>9</v>
       </c>
@@ -3940,8 +6975,101 @@
         <v>16</v>
       </c>
       <c r="L52" s="1"/>
+      <c r="N52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P52" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R52" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S52" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X52" s="1"/>
+      <c r="Z52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AF52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ52" s="1"/>
+      <c r="AL52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN52" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO52" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP52" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ52" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV52" s="1"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>9</v>
       </c>
@@ -3973,8 +7101,101 @@
         <v>16</v>
       </c>
       <c r="L53" s="1"/>
+      <c r="N53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P53" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R53" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S53" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X53" s="1"/>
+      <c r="Z53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ53" s="1"/>
+      <c r="AL53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN53" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO53" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP53" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ53" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV53" s="1"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>9</v>
       </c>
@@ -4006,8 +7227,101 @@
         <v>16</v>
       </c>
       <c r="L54" s="1"/>
+      <c r="N54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P54" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R54" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S54" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X54" s="1"/>
+      <c r="Z54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ54" s="1"/>
+      <c r="AL54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN54" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO54" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP54" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ54" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV54" s="1"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>9</v>
       </c>
@@ -4039,8 +7353,101 @@
         <v>16</v>
       </c>
       <c r="L55" s="1"/>
+      <c r="N55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P55" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R55" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S55" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X55" s="1"/>
+      <c r="Z55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB55" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AF55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ55" s="1"/>
+      <c r="AL55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN55" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO55" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP55" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ55" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV55" s="1"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>9</v>
       </c>
@@ -4072,8 +7479,69 @@
         <v>17</v>
       </c>
       <c r="L56" s="1"/>
+      <c r="Z56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ56" s="1"/>
+      <c r="AL56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN56" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO56" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP56" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ56" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU56" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>9</v>
       </c>
@@ -4105,8 +7573,69 @@
         <v>17</v>
       </c>
       <c r="L57" s="1"/>
+      <c r="Z57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ57" s="1"/>
+      <c r="AL57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN57" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU57" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>9</v>
       </c>
@@ -4138,8 +7667,69 @@
         <v>17</v>
       </c>
       <c r="L58" s="1"/>
+      <c r="Z58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AF58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ58" s="1"/>
+      <c r="AL58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN58" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ58" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU58" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>9</v>
       </c>
@@ -4171,8 +7761,69 @@
         <v>17</v>
       </c>
       <c r="L59" s="1"/>
+      <c r="Z59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AE59" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ59" s="1"/>
+      <c r="AL59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN59" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP59" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ59" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU59" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>9</v>
       </c>
@@ -4204,8 +7855,69 @@
         <v>17</v>
       </c>
       <c r="L60" s="1"/>
+      <c r="Z60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AE60" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ60" s="1"/>
+      <c r="AL60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN60" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO60" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP60" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ60" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU60" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>9</v>
       </c>
@@ -4237,8 +7949,69 @@
         <v>17</v>
       </c>
       <c r="L61" s="1"/>
+      <c r="Z61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AE61" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AF61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ61" s="1"/>
+      <c r="AL61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN61" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO61" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP61" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ61" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU61" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>9</v>
       </c>
@@ -4270,8 +8043,69 @@
         <v>17</v>
       </c>
       <c r="L62" s="1"/>
+      <c r="Z62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AE62" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ62" s="1"/>
+      <c r="AL62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN62" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO62" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP62" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ62" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU62" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>9</v>
       </c>
@@ -4303,8 +8137,69 @@
         <v>17</v>
       </c>
       <c r="L63" s="1"/>
+      <c r="Z63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ63" s="1"/>
+      <c r="AL63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN63" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO63" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP63" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ63" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU63" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>9</v>
       </c>
@@ -4336,8 +8231,69 @@
         <v>17</v>
       </c>
       <c r="L64" s="1"/>
+      <c r="Z64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AE64" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AF64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ64" s="1"/>
+      <c r="AL64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN64" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO64" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP64" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ64" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU64" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>9</v>
       </c>
@@ -4369,8 +8325,69 @@
         <v>17</v>
       </c>
       <c r="L65" s="1"/>
+      <c r="Z65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB65" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC65" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE65" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ65" s="1"/>
+      <c r="AL65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN65" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO65" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP65" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ65" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU65" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>9</v>
       </c>
@@ -4402,8 +8419,69 @@
         <v>17</v>
       </c>
       <c r="L66" s="1"/>
+      <c r="Z66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB66" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC66" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AD66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ66" s="1"/>
+      <c r="AL66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN66" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO66" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU66" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>9</v>
       </c>
@@ -4435,8 +8513,69 @@
         <v>17</v>
       </c>
       <c r="L67" s="1"/>
+      <c r="Z67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB67" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC67" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE67" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AF67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ67" s="1"/>
+      <c r="AL67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN67" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO67" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP67" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ67" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU67" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>9</v>
       </c>
@@ -4468,8 +8607,69 @@
         <v>17</v>
       </c>
       <c r="L68" s="1"/>
+      <c r="Z68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB68" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC68" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AD68" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AE68" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ68" s="1"/>
+      <c r="AL68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN68" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO68" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP68" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ68" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU68" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>9</v>
       </c>
@@ -4501,8 +8701,69 @@
         <v>17</v>
       </c>
       <c r="L69" s="1"/>
+      <c r="Z69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB69" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC69" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AE69" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ69" s="1"/>
+      <c r="AL69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN69" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO69" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP69" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ69" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU69" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>9</v>
       </c>
@@ -4534,8 +8795,69 @@
         <v>17</v>
       </c>
       <c r="L70" s="1"/>
+      <c r="Z70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB70" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC70" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AE70" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AF70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ70" s="1"/>
+      <c r="AL70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN70" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO70" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP70" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ70" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU70" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>9</v>
       </c>
@@ -4567,8 +8889,69 @@
         <v>17</v>
       </c>
       <c r="L71" s="1"/>
+      <c r="Z71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB71" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AD71" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AE71" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ71" s="1"/>
+      <c r="AL71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN71" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO71" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP71" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ71" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU71" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>9</v>
       </c>
@@ -4600,8 +8983,69 @@
         <v>17</v>
       </c>
       <c r="L72" s="1"/>
+      <c r="Z72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB72" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC72" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AD72" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AE72" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ72" s="1"/>
+      <c r="AL72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN72" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO72" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP72" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ72" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU72" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>9</v>
       </c>
@@ -4633,8 +9077,69 @@
         <v>17</v>
       </c>
       <c r="L73" s="1"/>
+      <c r="Z73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AE73" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AF73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ73" s="1"/>
+      <c r="AL73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN73" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO73" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AP73" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ73" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU73" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>9</v>
       </c>
@@ -4666,8 +9171,69 @@
         <v>17</v>
       </c>
       <c r="L74" s="1"/>
+      <c r="Z74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC74" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AD74" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE74" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ74" s="1"/>
+      <c r="AL74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN74" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO74" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP74" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ74" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU74" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>9</v>
       </c>
@@ -4699,8 +9265,69 @@
         <v>17</v>
       </c>
       <c r="L75" s="1"/>
+      <c r="Z75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB75" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC75" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AD75" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE75" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ75" s="1"/>
+      <c r="AL75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN75" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO75" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP75" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ75" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU75" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>9</v>
       </c>
@@ -4732,8 +9359,69 @@
         <v>17</v>
       </c>
       <c r="L76" s="1"/>
+      <c r="Z76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB76" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC76" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AD76" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE76" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AF76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ76" s="1"/>
+      <c r="AL76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN76" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO76" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP76" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ76" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU76" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>9</v>
       </c>
@@ -4765,8 +9453,69 @@
         <v>17</v>
       </c>
       <c r="L77" s="1"/>
+      <c r="Z77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB77" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC77" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AD77" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AE77" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ77" s="1"/>
+      <c r="AL77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN77" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO77" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP77" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ77" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU77" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>9</v>
       </c>
@@ -4798,8 +9547,69 @@
         <v>17</v>
       </c>
       <c r="L78" s="1"/>
+      <c r="Z78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB78" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC78" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AD78" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AE78" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ78" s="1"/>
+      <c r="AL78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN78" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO78" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP78" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ78" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU78" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>9</v>
       </c>
@@ -4831,8 +9641,69 @@
         <v>17</v>
       </c>
       <c r="L79" s="1"/>
+      <c r="Z79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB79" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC79" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AD79" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AE79" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AF79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ79" s="1"/>
+      <c r="AL79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN79" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO79" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP79" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AQ79" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU79" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>9</v>
       </c>
@@ -4864,8 +9735,69 @@
         <v>17</v>
       </c>
       <c r="L80" s="1"/>
+      <c r="Z80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB80" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC80" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AD80" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AE80" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ80" s="1"/>
+      <c r="AL80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN80" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO80" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP80" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ80" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AR80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU80" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>9</v>
       </c>
@@ -4897,8 +9829,69 @@
         <v>17</v>
       </c>
       <c r="L81" s="1"/>
+      <c r="Z81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB81" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC81" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AD81" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AE81" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ81" s="1"/>
+      <c r="AL81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN81" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO81" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP81" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ81" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU81" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>9</v>
       </c>
@@ -4930,6 +9923,67 @@
         <v>17</v>
       </c>
       <c r="L82" s="1"/>
+      <c r="Z82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB82" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC82" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AD82" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AE82" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AF82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ82" s="1"/>
+      <c r="AL82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN82" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO82" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP82" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AQ82" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AR82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU82" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:AJ82" xr:uid="{B7084FFB-0937-4522-B0E6-1330DF7D84E6}"/>

--- a/estadoPruebasInstanceGenerator.xlsx
+++ b/estadoPruebasInstanceGenerator.xlsx
@@ -8,28 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nufo\Documents\GitHub\JSSP-Matlab-OOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8130BA4C-1571-484E-B875-4159FB77BF49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC41359F-57A6-465C-83E9-8D3BBF31E1DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneratedInstances" sheetId="1" r:id="rId1"/>
-    <sheet name="PreliminaryInstances" sheetId="2" r:id="rId2"/>
+    <sheet name="Violines" sheetId="3" r:id="rId2"/>
+    <sheet name="PreliminaryInstances" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GeneratedInstances!$B$1:$AJ$82</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="46">
   <si>
     <t>Pop</t>
   </si>
@@ -117,6 +126,57 @@
   <si>
     <t>SPTvsLPT_Small_pop50.zip</t>
   </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Above Average</t>
+  </si>
+  <si>
+    <t>UF0.5</t>
+  </si>
+  <si>
+    <t>UF0.9</t>
+  </si>
+  <si>
+    <t>UF0.1</t>
+  </si>
+  <si>
+    <t>GC0.5</t>
+  </si>
+  <si>
+    <t>GC1.5</t>
+  </si>
+  <si>
+    <t>GC2.5</t>
+  </si>
+  <si>
+    <t>SC0.5</t>
+  </si>
+  <si>
+    <t>SC1.5</t>
+  </si>
+  <si>
+    <t>SC2.5</t>
+  </si>
+  <si>
+    <t>BESTUF</t>
+  </si>
+  <si>
+    <t>BESTGC</t>
+  </si>
+  <si>
+    <t>BESTSC</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>RESULTS</t>
+  </si>
 </sst>
 </file>
 
@@ -139,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +215,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB9D4E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -194,6 +266,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AV82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J35" workbookViewId="0">
+    <sheetView topLeftCell="J35" workbookViewId="0">
       <selection activeCell="X47" sqref="X47"/>
     </sheetView>
   </sheetViews>
@@ -9993,6 +10073,734 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEEF030-16A7-4272-BC78-8959B586F96E}">
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>52.077599999999997</v>
+      </c>
+      <c r="D2" s="1">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>51.253799999999998</v>
+      </c>
+      <c r="F2" s="1">
+        <v>52.371400000000001</v>
+      </c>
+      <c r="G2" s="5">
+        <v>52.607500000000002</v>
+      </c>
+      <c r="H2" s="5">
+        <v>52.352899999999998</v>
+      </c>
+      <c r="I2" s="1">
+        <v>51.675800000000002</v>
+      </c>
+      <c r="J2" s="1">
+        <v>52.203899999999997</v>
+      </c>
+      <c r="K2" s="1">
+        <v>51.814300000000003</v>
+      </c>
+      <c r="L2" s="1">
+        <v>51.910600000000002</v>
+      </c>
+      <c r="M2" s="5">
+        <v>52.5077</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>51.161200000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1">
+        <v>51.161200000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>51.386400000000002</v>
+      </c>
+      <c r="G3" s="5">
+        <v>51.595799999999997</v>
+      </c>
+      <c r="H3" s="1">
+        <v>51.434600000000003</v>
+      </c>
+      <c r="I3" s="5">
+        <v>51.453000000000003</v>
+      </c>
+      <c r="J3" s="1">
+        <v>51.255699999999997</v>
+      </c>
+      <c r="K3" s="5">
+        <v>51.627699999999997</v>
+      </c>
+      <c r="L3" s="1">
+        <v>51.145899999999997</v>
+      </c>
+      <c r="M3" s="6">
+        <v>51.369700000000002</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="O3" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1">
+        <v>51.628300000000003</v>
+      </c>
+      <c r="D4" s="1">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5">
+        <v>51.875999999999998</v>
+      </c>
+      <c r="F4" s="1">
+        <v>51.563000000000002</v>
+      </c>
+      <c r="G4" s="1">
+        <v>51.445799999999998</v>
+      </c>
+      <c r="H4" s="1">
+        <v>51.676000000000002</v>
+      </c>
+      <c r="I4" s="5">
+        <v>51.871299999999998</v>
+      </c>
+      <c r="J4" s="1">
+        <v>51.337600000000002</v>
+      </c>
+      <c r="K4" s="1">
+        <v>51.252899999999997</v>
+      </c>
+      <c r="L4" s="5">
+        <v>52.013500000000001</v>
+      </c>
+      <c r="M4" s="1">
+        <v>51.618499999999997</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>58.296399999999998</v>
+      </c>
+      <c r="D5" s="1">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5">
+        <v>58.616599999999998</v>
+      </c>
+      <c r="F5" s="1">
+        <v>58.057899999999997</v>
+      </c>
+      <c r="G5" s="1">
+        <v>58.214700000000001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>58.298000000000002</v>
+      </c>
+      <c r="I5" s="1">
+        <v>58.242100000000001</v>
+      </c>
+      <c r="J5" s="5">
+        <v>58.348999999999997</v>
+      </c>
+      <c r="K5" s="1">
+        <v>58.241199999999999</v>
+      </c>
+      <c r="L5" s="5">
+        <v>58.601399999999998</v>
+      </c>
+      <c r="M5" s="1">
+        <v>58.046599999999998</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O5" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5">
+        <v>58.972099999999998</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5">
+        <v>59.3399</v>
+      </c>
+      <c r="F6" s="1">
+        <v>58.943199999999997</v>
+      </c>
+      <c r="G6" s="1">
+        <v>58.633099999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>58.834600000000002</v>
+      </c>
+      <c r="I6" s="5">
+        <v>59.204999999999998</v>
+      </c>
+      <c r="J6" s="1">
+        <v>58.876600000000003</v>
+      </c>
+      <c r="K6" s="5">
+        <v>59.215000000000003</v>
+      </c>
+      <c r="L6" s="1">
+        <v>58.8416</v>
+      </c>
+      <c r="M6" s="1">
+        <v>58.859499999999997</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1">
+        <v>58.5047</v>
+      </c>
+      <c r="D7" s="1">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6">
+        <v>58.630899999999997</v>
+      </c>
+      <c r="F7" s="5">
+        <v>58.8187</v>
+      </c>
+      <c r="G7" s="6">
+        <v>58.064399999999999</v>
+      </c>
+      <c r="H7" s="6">
+        <v>58.405799999999999</v>
+      </c>
+      <c r="I7" s="5">
+        <v>58.661700000000003</v>
+      </c>
+      <c r="J7" s="6">
+        <v>58.4465</v>
+      </c>
+      <c r="K7" s="5">
+        <v>58.742899999999999</v>
+      </c>
+      <c r="L7" s="6">
+        <v>58.344200000000001</v>
+      </c>
+      <c r="M7" s="6">
+        <v>58.427</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>22.3871</v>
+      </c>
+      <c r="D8" s="1">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5">
+        <v>23.046800000000001</v>
+      </c>
+      <c r="F8" s="6">
+        <v>21.9512</v>
+      </c>
+      <c r="G8" s="6">
+        <v>22.1633</v>
+      </c>
+      <c r="H8" s="6">
+        <v>21.6662</v>
+      </c>
+      <c r="I8" s="6">
+        <v>22.441400000000002</v>
+      </c>
+      <c r="J8" s="5">
+        <v>23.053699999999999</v>
+      </c>
+      <c r="K8" s="5">
+        <v>22.836600000000001</v>
+      </c>
+      <c r="L8" s="6">
+        <v>22.198599999999999</v>
+      </c>
+      <c r="M8" s="6">
+        <v>22.126100000000001</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>22.5379</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>22.5379</v>
+      </c>
+      <c r="F9" s="1">
+        <v>22.5379</v>
+      </c>
+      <c r="G9" s="1">
+        <v>22.5379</v>
+      </c>
+      <c r="H9" s="1">
+        <v>22.5379</v>
+      </c>
+      <c r="I9" s="1">
+        <v>22.5379</v>
+      </c>
+      <c r="J9" s="1">
+        <v>22.5379</v>
+      </c>
+      <c r="K9" s="1">
+        <v>22.5379</v>
+      </c>
+      <c r="L9" s="1">
+        <v>22.5379</v>
+      </c>
+      <c r="M9" s="1">
+        <v>22.5379</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1">
+        <v>22.5379</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>22.5379</v>
+      </c>
+      <c r="F10" s="1">
+        <v>22.5379</v>
+      </c>
+      <c r="G10" s="1">
+        <v>22.5379</v>
+      </c>
+      <c r="H10" s="1">
+        <v>22.5379</v>
+      </c>
+      <c r="I10" s="1">
+        <v>22.5379</v>
+      </c>
+      <c r="J10" s="1">
+        <v>22.5379</v>
+      </c>
+      <c r="K10" s="1">
+        <v>22.5379</v>
+      </c>
+      <c r="L10" s="1">
+        <v>22.5379</v>
+      </c>
+      <c r="M10" s="1">
+        <v>22.5379</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>52.163699999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1">
+        <v>52.252200000000002</v>
+      </c>
+      <c r="F11" s="1">
+        <v>51.854399999999998</v>
+      </c>
+      <c r="G11" s="5">
+        <v>52.384599999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>52.123399999999997</v>
+      </c>
+      <c r="I11" s="1">
+        <v>52.121499999999997</v>
+      </c>
+      <c r="J11" s="5">
+        <v>52.246200000000002</v>
+      </c>
+      <c r="K11" s="5">
+        <v>52.251199999999997</v>
+      </c>
+      <c r="L11" s="1">
+        <v>52.171500000000002</v>
+      </c>
+      <c r="M11" s="1">
+        <v>52.068300000000001</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="O11" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6">
+        <v>51.706400000000002</v>
+      </c>
+      <c r="D12" s="1">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6">
+        <v>51.522599999999997</v>
+      </c>
+      <c r="F12" s="1">
+        <v>51.466500000000003</v>
+      </c>
+      <c r="G12" s="5">
+        <v>52.130200000000002</v>
+      </c>
+      <c r="H12" s="1">
+        <v>51.471499999999999</v>
+      </c>
+      <c r="I12" s="5">
+        <v>51.956800000000001</v>
+      </c>
+      <c r="J12" s="1">
+        <v>51.691000000000003</v>
+      </c>
+      <c r="K12" s="6">
+        <v>51.670200000000001</v>
+      </c>
+      <c r="L12" s="5">
+        <v>51.785699999999999</v>
+      </c>
+      <c r="M12" s="1">
+        <v>51.663499999999999</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O12" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="P12" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1">
+        <v>52.143300000000004</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>51.768999999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <v>52.432400000000001</v>
+      </c>
+      <c r="G13" s="1">
+        <v>52.228400000000001</v>
+      </c>
+      <c r="H13" s="1">
+        <v>51.588900000000002</v>
+      </c>
+      <c r="I13" s="1">
+        <v>52.202100000000002</v>
+      </c>
+      <c r="J13" s="5">
+        <v>52.6389</v>
+      </c>
+      <c r="K13" s="6">
+        <v>52.009099999999997</v>
+      </c>
+      <c r="L13" s="6">
+        <v>52.110399999999998</v>
+      </c>
+      <c r="M13" s="5">
+        <v>52.310499999999998</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O13" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="P13" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <f>AVERAGE(D2:D13)</f>
+        <v>10.833333333333334</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" ref="E14:M14" si="0">AVERAGE(E2:E13)</f>
+        <v>46.212066666666665</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>46.160074999999999</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>46.211966666666655</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>46.077308333333328</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>46.24220833333333</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" si="0"/>
+        <v>46.264575000000001</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="0"/>
+        <v>46.228074999999997</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>46.183266666666668</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="0"/>
+        <v>46.172766666666668</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="O14" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P14" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F50C54-4B36-4FAE-A063-9E695721D4D2}">
   <dimension ref="B1:L3"/>
   <sheetViews>

--- a/estadoPruebasInstanceGenerator.xlsx
+++ b/estadoPruebasInstanceGenerator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nufo\Documents\GitHub\JSSP-Matlab-OOP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER END\Desktop\TEC COURSES\MASTER\TESIS\MATLAB\JSSP-Matlab-OOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC41359F-57A6-465C-83E9-8D3BBF31E1DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C7326F-CFC8-4EFA-87EC-52E4872FF3E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneratedInstances" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="46">
   <si>
     <t>Pop</t>
   </si>
@@ -172,16 +172,20 @@
     <t>BESTSC</t>
   </si>
   <si>
-    <t>#</t>
+    <t>RESULTS</t>
   </si>
   <si>
-    <t>RESULTS</t>
+    <t>SPTvsLPT_Small_pop30.zip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +231,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -274,6 +284,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,11 +577,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AV82"/>
   <sheetViews>
-    <sheetView topLeftCell="J35" workbookViewId="0">
-      <selection activeCell="X47" sqref="X47"/>
+    <sheetView tabSelected="1" topLeftCell="J46" workbookViewId="0">
+      <selection activeCell="W86" sqref="W86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
@@ -7559,6 +7575,36 @@
         <v>17</v>
       </c>
       <c r="L56" s="1"/>
+      <c r="N56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P56" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R56" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S56" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z56" s="1" t="s">
         <v>20</v>
       </c>
@@ -7653,6 +7699,36 @@
         <v>17</v>
       </c>
       <c r="L57" s="1"/>
+      <c r="N57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P57" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z57" s="1" t="s">
         <v>20</v>
       </c>
@@ -7747,6 +7823,36 @@
         <v>17</v>
       </c>
       <c r="L58" s="1"/>
+      <c r="N58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P58" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S58" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z58" s="1" t="s">
         <v>20</v>
       </c>
@@ -7841,6 +7947,36 @@
         <v>17</v>
       </c>
       <c r="L59" s="1"/>
+      <c r="N59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P59" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R59" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S59" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z59" s="1" t="s">
         <v>20</v>
       </c>
@@ -7935,6 +8071,36 @@
         <v>17</v>
       </c>
       <c r="L60" s="1"/>
+      <c r="N60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P60" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R60" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S60" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z60" s="1" t="s">
         <v>20</v>
       </c>
@@ -8029,6 +8195,36 @@
         <v>17</v>
       </c>
       <c r="L61" s="1"/>
+      <c r="N61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P61" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R61" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S61" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z61" s="1" t="s">
         <v>20</v>
       </c>
@@ -8123,6 +8319,36 @@
         <v>17</v>
       </c>
       <c r="L62" s="1"/>
+      <c r="N62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P62" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R62" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S62" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W62" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z62" s="1" t="s">
         <v>20</v>
       </c>
@@ -8217,6 +8443,36 @@
         <v>17</v>
       </c>
       <c r="L63" s="1"/>
+      <c r="N63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P63" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R63" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S63" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z63" s="1" t="s">
         <v>20</v>
       </c>
@@ -8311,6 +8567,36 @@
         <v>17</v>
       </c>
       <c r="L64" s="1"/>
+      <c r="N64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P64" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R64" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S64" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W64" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z64" s="1" t="s">
         <v>20</v>
       </c>
@@ -8405,6 +8691,36 @@
         <v>17</v>
       </c>
       <c r="L65" s="1"/>
+      <c r="N65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P65" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R65" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S65" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z65" s="1" t="s">
         <v>20</v>
       </c>
@@ -8499,6 +8815,36 @@
         <v>17</v>
       </c>
       <c r="L66" s="1"/>
+      <c r="N66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P66" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W66" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z66" s="1" t="s">
         <v>20</v>
       </c>
@@ -8593,6 +8939,36 @@
         <v>17</v>
       </c>
       <c r="L67" s="1"/>
+      <c r="N67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P67" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R67" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S67" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W67" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z67" s="1" t="s">
         <v>20</v>
       </c>
@@ -8687,6 +9063,36 @@
         <v>17</v>
       </c>
       <c r="L68" s="1"/>
+      <c r="N68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P68" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R68" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S68" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W68" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z68" s="1" t="s">
         <v>20</v>
       </c>
@@ -8781,6 +9187,36 @@
         <v>17</v>
       </c>
       <c r="L69" s="1"/>
+      <c r="N69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P69" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R69" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S69" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W69" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z69" s="1" t="s">
         <v>20</v>
       </c>
@@ -8875,6 +9311,36 @@
         <v>17</v>
       </c>
       <c r="L70" s="1"/>
+      <c r="N70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P70" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R70" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S70" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z70" s="1" t="s">
         <v>20</v>
       </c>
@@ -8969,6 +9435,36 @@
         <v>17</v>
       </c>
       <c r="L71" s="1"/>
+      <c r="N71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P71" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R71" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S71" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W71" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z71" s="1" t="s">
         <v>20</v>
       </c>
@@ -9063,6 +9559,36 @@
         <v>17</v>
       </c>
       <c r="L72" s="1"/>
+      <c r="N72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P72" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R72" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S72" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z72" s="1" t="s">
         <v>20</v>
       </c>
@@ -9157,6 +9683,36 @@
         <v>17</v>
       </c>
       <c r="L73" s="1"/>
+      <c r="N73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P73" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="R73" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S73" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W73" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z73" s="1" t="s">
         <v>20</v>
       </c>
@@ -9251,6 +9807,36 @@
         <v>17</v>
       </c>
       <c r="L74" s="1"/>
+      <c r="N74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P74" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R74" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S74" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W74" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z74" s="1" t="s">
         <v>20</v>
       </c>
@@ -9345,6 +9931,36 @@
         <v>17</v>
       </c>
       <c r="L75" s="1"/>
+      <c r="N75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P75" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R75" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S75" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W75" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z75" s="1" t="s">
         <v>20</v>
       </c>
@@ -9439,6 +10055,36 @@
         <v>17</v>
       </c>
       <c r="L76" s="1"/>
+      <c r="N76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P76" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R76" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S76" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W76" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z76" s="1" t="s">
         <v>20</v>
       </c>
@@ -9533,6 +10179,36 @@
         <v>17</v>
       </c>
       <c r="L77" s="1"/>
+      <c r="N77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P77" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R77" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S77" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W77" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z77" s="1" t="s">
         <v>20</v>
       </c>
@@ -9627,6 +10303,36 @@
         <v>17</v>
       </c>
       <c r="L78" s="1"/>
+      <c r="N78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P78" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R78" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S78" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W78" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z78" s="1" t="s">
         <v>20</v>
       </c>
@@ -9721,6 +10427,36 @@
         <v>17</v>
       </c>
       <c r="L79" s="1"/>
+      <c r="N79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P79" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R79" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="S79" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W79" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z79" s="1" t="s">
         <v>20</v>
       </c>
@@ -9815,6 +10551,36 @@
         <v>17</v>
       </c>
       <c r="L80" s="1"/>
+      <c r="N80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P80" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R80" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S80" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W80" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z80" s="1" t="s">
         <v>20</v>
       </c>
@@ -9909,6 +10675,36 @@
         <v>17</v>
       </c>
       <c r="L81" s="1"/>
+      <c r="N81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P81" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R81" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S81" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W81" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z81" s="1" t="s">
         <v>20</v>
       </c>
@@ -10003,6 +10799,36 @@
         <v>17</v>
       </c>
       <c r="L82" s="1"/>
+      <c r="N82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P82" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="R82" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S82" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W82" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Z82" s="1" t="s">
         <v>20</v>
       </c>
@@ -10074,13 +10900,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEEF030-16A7-4272-BC78-8959B586F96E}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -10143,7 +10969,7 @@
       <c r="B2" s="5">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="11">
         <v>52.077599999999997</v>
       </c>
       <c r="D2" s="1">
@@ -10193,8 +11019,8 @@
       <c r="B3" s="1">
         <v>30</v>
       </c>
-      <c r="C3" s="1">
-        <v>51.161200000000001</v>
+      <c r="C3" s="11">
+        <v>51.381100000000004</v>
       </c>
       <c r="D3" s="1">
         <v>14</v>
@@ -10243,7 +11069,7 @@
       <c r="B4" s="1">
         <v>50</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="11">
         <v>51.628300000000003</v>
       </c>
       <c r="D4" s="1">
@@ -10293,7 +11119,7 @@
       <c r="B5" s="1">
         <v>10</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="11">
         <v>58.296399999999998</v>
       </c>
       <c r="D5" s="1">
@@ -10343,7 +11169,7 @@
       <c r="B6" s="5">
         <v>30</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="11">
         <v>58.972099999999998</v>
       </c>
       <c r="D6" s="1">
@@ -10393,38 +11219,38 @@
       <c r="B7" s="1">
         <v>50</v>
       </c>
-      <c r="C7" s="1">
-        <v>58.5047</v>
+      <c r="C7" s="11">
+        <v>58.5154</v>
       </c>
       <c r="D7" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E7" s="6">
-        <v>58.630899999999997</v>
+        <v>58.462899999999998</v>
       </c>
       <c r="F7" s="5">
-        <v>58.8187</v>
+        <v>58.685499999999998</v>
       </c>
       <c r="G7" s="6">
-        <v>58.064399999999999</v>
+        <v>58.397799999999997</v>
       </c>
       <c r="H7" s="6">
-        <v>58.405799999999999</v>
+        <v>58.2881</v>
       </c>
       <c r="I7" s="5">
-        <v>58.661700000000003</v>
+        <v>59.0717</v>
       </c>
       <c r="J7" s="6">
-        <v>58.4465</v>
-      </c>
-      <c r="K7" s="5">
-        <v>58.742899999999999</v>
+        <v>58.186300000000003</v>
+      </c>
+      <c r="K7" s="11">
+        <v>58.198300000000003</v>
       </c>
       <c r="L7" s="6">
-        <v>58.344200000000001</v>
-      </c>
-      <c r="M7" s="6">
-        <v>58.427</v>
+        <v>58.337499999999999</v>
+      </c>
+      <c r="M7" s="5">
+        <v>59.010300000000001</v>
       </c>
       <c r="N7" s="6">
         <v>0.5</v>
@@ -10433,7 +11259,7 @@
         <v>1.5</v>
       </c>
       <c r="P7" s="6">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -10443,7 +11269,7 @@
       <c r="B8" s="1">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="11">
         <v>22.3871</v>
       </c>
       <c r="D8" s="1">
@@ -10493,97 +11319,97 @@
       <c r="B9" s="1">
         <v>30</v>
       </c>
-      <c r="C9" s="1">
-        <v>22.5379</v>
+      <c r="C9" s="11">
+        <v>22.487300000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1">
-        <v>22.5379</v>
+        <v>22.348299999999998</v>
       </c>
       <c r="F9" s="1">
-        <v>22.5379</v>
-      </c>
-      <c r="G9" s="1">
-        <v>22.5379</v>
-      </c>
-      <c r="H9" s="1">
-        <v>22.5379</v>
+        <v>22.456600000000002</v>
+      </c>
+      <c r="G9" s="5">
+        <v>22.6571</v>
+      </c>
+      <c r="H9" s="5">
+        <v>22.830200000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>22.5379</v>
+        <v>22.563300000000002</v>
       </c>
       <c r="J9" s="1">
-        <v>22.5379</v>
+        <v>22.0685</v>
       </c>
       <c r="K9" s="1">
-        <v>22.5379</v>
-      </c>
-      <c r="L9" s="1">
-        <v>22.5379</v>
+        <v>22.3965</v>
+      </c>
+      <c r="L9" s="5">
+        <v>22.6416</v>
       </c>
       <c r="M9" s="1">
-        <v>22.5379</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>44</v>
+        <v>22.4239</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="5">
         <v>50</v>
       </c>
-      <c r="C10" s="1">
-        <v>22.5379</v>
+      <c r="C10" s="11">
+        <v>22.5977</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1">
-        <v>22.5379</v>
-      </c>
-      <c r="F10" s="1">
-        <v>22.5379</v>
+        <v>22.414200000000001</v>
+      </c>
+      <c r="F10" s="5">
+        <v>22.8931</v>
       </c>
       <c r="G10" s="1">
-        <v>22.5379</v>
-      </c>
-      <c r="H10" s="1">
-        <v>22.5379</v>
+        <v>22.483000000000001</v>
+      </c>
+      <c r="H10" s="5">
+        <v>22.876100000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>22.5379</v>
+        <v>22.613499999999998</v>
       </c>
       <c r="J10" s="1">
-        <v>22.5379</v>
+        <v>22.3035</v>
       </c>
       <c r="K10" s="1">
-        <v>22.5379</v>
-      </c>
-      <c r="L10" s="1">
-        <v>22.5379</v>
+        <v>22.5243</v>
+      </c>
+      <c r="L10" s="5">
+        <v>22.7941</v>
       </c>
       <c r="M10" s="1">
-        <v>22.5379</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>22.474799999999998</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P10" s="7">
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -10593,7 +11419,7 @@
       <c r="B11" s="5">
         <v>10</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="11">
         <v>52.163699999999999</v>
       </c>
       <c r="D11" s="1">
@@ -10677,7 +11503,7 @@
         <v>51.663499999999999</v>
       </c>
       <c r="N12" s="6">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="O12" s="6">
         <v>1.5</v>
@@ -10738,60 +11564,872 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="12">
+        <f>AVERAGE(C2:C13)</f>
+        <v>46.196366666666655</v>
+      </c>
       <c r="D14" s="1">
         <f>AVERAGE(D2:D13)</f>
-        <v>10.833333333333334</v>
-      </c>
-      <c r="E14" s="8">
-        <f t="shared" ref="E14:M14" si="0">AVERAGE(E2:E13)</f>
-        <v>46.212066666666665</v>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="E14" s="11">
+        <v>46.171947222222222</v>
       </c>
       <c r="F14" s="1">
+        <v>46.172035185185187</v>
+      </c>
+      <c r="G14" s="8">
+        <v>46.245103703703698</v>
+      </c>
+      <c r="H14" s="1">
+        <v>46.120044444444439</v>
+      </c>
+      <c r="I14" s="8">
+        <v>46.284797222222217</v>
+      </c>
+      <c r="J14" s="11">
+        <v>46.184244444444438</v>
+      </c>
+      <c r="K14" s="11">
+        <v>46.169768518518509</v>
+      </c>
+      <c r="L14" s="8">
+        <v>46.212691666666665</v>
+      </c>
+      <c r="M14" s="1">
+        <v>46.206625925925927</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="O14" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="P14" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="5">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>52.077599999999997</v>
+      </c>
+      <c r="D18" s="1">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1">
+        <v>51.253799999999998</v>
+      </c>
+      <c r="F18" s="1">
+        <v>52.371400000000001</v>
+      </c>
+      <c r="G18" s="5">
+        <v>52.607500000000002</v>
+      </c>
+      <c r="H18" s="5">
+        <v>52.352899999999998</v>
+      </c>
+      <c r="I18" s="1">
+        <v>51.675800000000002</v>
+      </c>
+      <c r="J18" s="1">
+        <v>52.203899999999997</v>
+      </c>
+      <c r="K18" s="1">
+        <v>51.814300000000003</v>
+      </c>
+      <c r="L18" s="1">
+        <v>51.910600000000002</v>
+      </c>
+      <c r="M18" s="5">
+        <v>52.5077</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P18" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1">
+        <v>51.381100000000004</v>
+      </c>
+      <c r="D19" s="1">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1">
+        <v>51.161200000000001</v>
+      </c>
+      <c r="F19" s="1">
+        <v>51.386400000000002</v>
+      </c>
+      <c r="G19" s="5">
+        <v>51.595799999999997</v>
+      </c>
+      <c r="H19" s="1">
+        <v>51.434600000000003</v>
+      </c>
+      <c r="I19" s="5">
+        <v>51.453000000000003</v>
+      </c>
+      <c r="J19" s="1">
+        <v>51.255699999999997</v>
+      </c>
+      <c r="K19" s="5">
+        <v>51.627699999999997</v>
+      </c>
+      <c r="L19" s="1">
+        <v>51.145899999999997</v>
+      </c>
+      <c r="M19" s="6">
+        <v>51.369700000000002</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1">
+        <v>51.628300000000003</v>
+      </c>
+      <c r="D20" s="1">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5">
+        <v>51.875999999999998</v>
+      </c>
+      <c r="F20" s="1">
+        <v>51.563000000000002</v>
+      </c>
+      <c r="G20" s="1">
+        <v>51.445799999999998</v>
+      </c>
+      <c r="H20" s="1">
+        <v>51.676000000000002</v>
+      </c>
+      <c r="I20" s="5">
+        <v>51.871299999999998</v>
+      </c>
+      <c r="J20" s="1">
+        <v>51.337600000000002</v>
+      </c>
+      <c r="K20" s="1">
+        <v>51.252899999999997</v>
+      </c>
+      <c r="L20" s="5">
+        <v>52.013500000000001</v>
+      </c>
+      <c r="M20" s="1">
+        <v>51.618499999999997</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5">
+        <v>52.163699999999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1">
+        <v>52.252200000000002</v>
+      </c>
+      <c r="F21" s="1">
+        <v>51.854399999999998</v>
+      </c>
+      <c r="G21" s="5">
+        <v>52.384599999999999</v>
+      </c>
+      <c r="H21" s="1">
+        <v>52.123399999999997</v>
+      </c>
+      <c r="I21" s="1">
+        <v>52.121499999999997</v>
+      </c>
+      <c r="J21" s="5">
+        <v>52.246200000000002</v>
+      </c>
+      <c r="K21" s="5">
+        <v>52.251199999999997</v>
+      </c>
+      <c r="L21" s="1">
+        <v>52.171500000000002</v>
+      </c>
+      <c r="M21" s="1">
+        <v>52.068300000000001</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="O21" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6">
+        <v>30</v>
+      </c>
+      <c r="C22" s="6">
+        <v>51.706400000000002</v>
+      </c>
+      <c r="D22" s="1">
+        <v>12</v>
+      </c>
+      <c r="E22" s="6">
+        <v>51.522599999999997</v>
+      </c>
+      <c r="F22" s="1">
+        <v>51.466500000000003</v>
+      </c>
+      <c r="G22" s="5">
+        <v>52.130200000000002</v>
+      </c>
+      <c r="H22" s="1">
+        <v>51.471499999999999</v>
+      </c>
+      <c r="I22" s="5">
+        <v>51.956800000000001</v>
+      </c>
+      <c r="J22" s="1">
+        <v>51.691000000000003</v>
+      </c>
+      <c r="K22" s="6">
+        <v>51.670200000000001</v>
+      </c>
+      <c r="L22" s="5">
+        <v>51.785699999999999</v>
+      </c>
+      <c r="M22" s="1">
+        <v>51.663499999999999</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="O22" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="P22" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1">
+        <v>50</v>
+      </c>
+      <c r="C23" s="1">
+        <v>52.143300000000004</v>
+      </c>
+      <c r="D23" s="1">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1">
+        <v>51.768999999999998</v>
+      </c>
+      <c r="F23" s="5">
+        <v>52.432400000000001</v>
+      </c>
+      <c r="G23" s="1">
+        <v>52.228400000000001</v>
+      </c>
+      <c r="H23" s="1">
+        <v>51.588900000000002</v>
+      </c>
+      <c r="I23" s="1">
+        <v>52.202100000000002</v>
+      </c>
+      <c r="J23" s="5">
+        <v>52.6389</v>
+      </c>
+      <c r="K23" s="6">
+        <v>52.009099999999997</v>
+      </c>
+      <c r="L23" s="6">
+        <v>52.110399999999998</v>
+      </c>
+      <c r="M23" s="5">
+        <v>52.310499999999998</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O23" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="P23" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="6">
+        <v>10</v>
+      </c>
+      <c r="C24" s="12">
+        <f>AVERAGE(C18:C23)</f>
+        <v>51.850066666666663</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" ref="D24:M24" si="0">AVERAGE(D18:D23)</f>
+        <v>12.833333333333334</v>
+      </c>
+      <c r="E24" s="12">
         <f t="shared" si="0"/>
-        <v>46.160074999999999</v>
-      </c>
-      <c r="G14" s="1">
+        <v>51.639133333333341</v>
+      </c>
+      <c r="F24" s="12">
         <f t="shared" si="0"/>
-        <v>46.211966666666655</v>
-      </c>
-      <c r="H14" s="1">
+        <v>51.845683333333341</v>
+      </c>
+      <c r="G24" s="13">
         <f t="shared" si="0"/>
-        <v>46.077308333333328</v>
-      </c>
-      <c r="I14" s="1">
+        <v>52.065383333333337</v>
+      </c>
+      <c r="H24" s="12">
         <f t="shared" si="0"/>
-        <v>46.24220833333333</v>
-      </c>
-      <c r="J14" s="8">
+        <v>51.774550000000005</v>
+      </c>
+      <c r="I24" s="12">
         <f t="shared" si="0"/>
-        <v>46.264575000000001</v>
-      </c>
-      <c r="K14" s="8">
+        <v>51.880083333333324</v>
+      </c>
+      <c r="J24" s="13">
         <f t="shared" si="0"/>
-        <v>46.228074999999997</v>
-      </c>
-      <c r="L14" s="1">
+        <v>51.895550000000007</v>
+      </c>
+      <c r="K24" s="12">
         <f t="shared" si="0"/>
-        <v>46.183266666666668</v>
-      </c>
-      <c r="M14" s="1">
+        <v>51.770900000000005</v>
+      </c>
+      <c r="L24" s="12">
         <f t="shared" si="0"/>
-        <v>46.172766666666668</v>
-      </c>
-      <c r="N14" s="8">
+        <v>51.85626666666667</v>
+      </c>
+      <c r="M24" s="13">
+        <f t="shared" si="0"/>
+        <v>51.923033333333336</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="O24" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P24" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1">
+        <v>10</v>
+      </c>
+      <c r="C28" s="11">
+        <v>58.296399999999998</v>
+      </c>
+      <c r="D28" s="1">
+        <v>11</v>
+      </c>
+      <c r="E28" s="5">
+        <v>58.616599999999998</v>
+      </c>
+      <c r="F28" s="1">
+        <v>58.057899999999997</v>
+      </c>
+      <c r="G28" s="1">
+        <v>58.214700000000001</v>
+      </c>
+      <c r="H28" s="1">
+        <v>58.298000000000002</v>
+      </c>
+      <c r="I28" s="1">
+        <v>58.242100000000001</v>
+      </c>
+      <c r="J28" s="5">
+        <v>58.348999999999997</v>
+      </c>
+      <c r="K28" s="1">
+        <v>58.241199999999999</v>
+      </c>
+      <c r="L28" s="5">
+        <v>58.601399999999998</v>
+      </c>
+      <c r="M28" s="1">
+        <v>58.046599999999998</v>
+      </c>
+      <c r="N28" s="6">
         <v>0.1</v>
       </c>
-      <c r="O14" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="P14" s="8">
-        <v>0.5</v>
+      <c r="O28" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="P28" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="5">
+        <v>30</v>
+      </c>
+      <c r="C29" s="11">
+        <v>58.972099999999998</v>
+      </c>
+      <c r="D29" s="1">
+        <v>15</v>
+      </c>
+      <c r="E29" s="5">
+        <v>59.3399</v>
+      </c>
+      <c r="F29" s="1">
+        <v>58.943199999999997</v>
+      </c>
+      <c r="G29" s="1">
+        <v>58.633099999999999</v>
+      </c>
+      <c r="H29" s="1">
+        <v>58.834600000000002</v>
+      </c>
+      <c r="I29" s="5">
+        <v>59.204999999999998</v>
+      </c>
+      <c r="J29" s="1">
+        <v>58.876600000000003</v>
+      </c>
+      <c r="K29" s="5">
+        <v>59.215000000000003</v>
+      </c>
+      <c r="L29" s="1">
+        <v>58.8416</v>
+      </c>
+      <c r="M29" s="1">
+        <v>58.859499999999997</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O29" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1">
+        <v>50</v>
+      </c>
+      <c r="C30" s="11">
+        <v>58.5154</v>
+      </c>
+      <c r="D30" s="1">
+        <v>17</v>
+      </c>
+      <c r="E30" s="6">
+        <v>58.462899999999998</v>
+      </c>
+      <c r="F30" s="5">
+        <v>58.685499999999998</v>
+      </c>
+      <c r="G30" s="6">
+        <v>58.397799999999997</v>
+      </c>
+      <c r="H30" s="6">
+        <v>58.2881</v>
+      </c>
+      <c r="I30" s="5">
+        <v>59.0717</v>
+      </c>
+      <c r="J30" s="6">
+        <v>58.186300000000003</v>
+      </c>
+      <c r="K30" s="11">
+        <v>58.198300000000003</v>
+      </c>
+      <c r="L30" s="6">
+        <v>58.337499999999999</v>
+      </c>
+      <c r="M30" s="5">
+        <v>59.010300000000001</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O30" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="P30" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1">
+        <v>10</v>
+      </c>
+      <c r="C31" s="11">
+        <v>22.3871</v>
+      </c>
+      <c r="D31" s="1">
+        <v>16</v>
+      </c>
+      <c r="E31" s="5">
+        <v>23.046800000000001</v>
+      </c>
+      <c r="F31" s="6">
+        <v>21.9512</v>
+      </c>
+      <c r="G31" s="6">
+        <v>22.1633</v>
+      </c>
+      <c r="H31" s="6">
+        <v>21.6662</v>
+      </c>
+      <c r="I31" s="6">
+        <v>22.441400000000002</v>
+      </c>
+      <c r="J31" s="5">
+        <v>23.053699999999999</v>
+      </c>
+      <c r="K31" s="5">
+        <v>22.836600000000001</v>
+      </c>
+      <c r="L31" s="6">
+        <v>22.198599999999999</v>
+      </c>
+      <c r="M31" s="6">
+        <v>22.126100000000001</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O31" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="P31" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32" s="11">
+        <v>22.487300000000001</v>
+      </c>
+      <c r="D32" s="1">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1">
+        <v>22.348299999999998</v>
+      </c>
+      <c r="F32" s="1">
+        <v>22.456600000000002</v>
+      </c>
+      <c r="G32" s="5">
+        <v>22.6571</v>
+      </c>
+      <c r="H32" s="5">
+        <v>22.830200000000001</v>
+      </c>
+      <c r="I32" s="1">
+        <v>22.563300000000002</v>
+      </c>
+      <c r="J32" s="1">
+        <v>22.0685</v>
+      </c>
+      <c r="K32" s="1">
+        <v>22.3965</v>
+      </c>
+      <c r="L32" s="5">
+        <v>22.6416</v>
+      </c>
+      <c r="M32" s="1">
+        <v>22.4239</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P32" s="7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="5">
+        <v>50</v>
+      </c>
+      <c r="C33" s="11">
+        <v>22.5977</v>
+      </c>
+      <c r="D33" s="1">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1">
+        <v>22.414200000000001</v>
+      </c>
+      <c r="F33" s="5">
+        <v>22.8931</v>
+      </c>
+      <c r="G33" s="1">
+        <v>22.483000000000001</v>
+      </c>
+      <c r="H33" s="5">
+        <v>22.876100000000001</v>
+      </c>
+      <c r="I33" s="1">
+        <v>22.613499999999998</v>
+      </c>
+      <c r="J33" s="1">
+        <v>22.3035</v>
+      </c>
+      <c r="K33" s="1">
+        <v>22.5243</v>
+      </c>
+      <c r="L33" s="5">
+        <v>22.7941</v>
+      </c>
+      <c r="M33" s="1">
+        <v>22.474799999999998</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P33" s="7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="6">
+        <v>30</v>
+      </c>
+      <c r="C34" s="12">
+        <f>AVERAGE(C28:C33)</f>
+        <v>40.542666666666669</v>
+      </c>
+      <c r="D34" s="14">
+        <f t="shared" ref="D34" si="1">AVERAGE(D28:D33)</f>
+        <v>14.5</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" ref="E34" si="2">AVERAGE(E28:E33)</f>
+        <v>40.704783333333332</v>
+      </c>
+      <c r="F34" s="12">
+        <f t="shared" ref="F34" si="3">AVERAGE(F28:F33)</f>
+        <v>40.497916666666669</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" ref="G34" si="4">AVERAGE(G28:G33)</f>
+        <v>40.424833333333332</v>
+      </c>
+      <c r="H34" s="12">
+        <f t="shared" ref="H34" si="5">AVERAGE(H28:H33)</f>
+        <v>40.465533333333333</v>
+      </c>
+      <c r="I34" s="13">
+        <f t="shared" ref="I34" si="6">AVERAGE(I28:I33)</f>
+        <v>40.689499999999995</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" ref="J34" si="7">AVERAGE(J28:J33)</f>
+        <v>40.472933333333337</v>
+      </c>
+      <c r="K34" s="12">
+        <f t="shared" ref="K34" si="8">AVERAGE(K28:K33)</f>
+        <v>40.568649999999998</v>
+      </c>
+      <c r="L34" s="13">
+        <f t="shared" ref="L34" si="9">AVERAGE(L28:L33)</f>
+        <v>40.569133333333333</v>
+      </c>
+      <c r="M34" s="15">
+        <f t="shared" ref="M34" si="10">AVERAGE(M28:M33)</f>
+        <v>40.490200000000002</v>
+      </c>
+      <c r="N34" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="O34" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="P34" s="8">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -10808,7 +12446,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>

--- a/estadoPruebasInstanceGenerator.xlsx
+++ b/estadoPruebasInstanceGenerator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER END\Desktop\TEC COURSES\MASTER\TESIS\MATLAB\JSSP-Matlab-OOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C7326F-CFC8-4EFA-87EC-52E4872FF3E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790B7078-4A90-41FA-821D-2A7F7B0358F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneratedInstances" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GeneratedInstances!$B$1:$AJ$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="46">
   <si>
     <t>Pop</t>
   </si>
@@ -183,8 +184,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -268,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -285,11 +286,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AV82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J46" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="W86" sqref="W86"/>
     </sheetView>
   </sheetViews>
@@ -10900,10 +10902,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEEF030-16A7-4272-BC78-8959B586F96E}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="N16" workbookViewId="0">
+      <selection activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10912,6 +10914,11 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="30" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -11614,7 +11621,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="9" t="s">
         <v>29</v>
@@ -11661,8 +11668,54 @@
       <c r="P17" s="9" t="s">
         <v>43</v>
       </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG17" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>20</v>
       </c>
@@ -11711,8 +11764,56 @@
       <c r="P18" s="1">
         <v>2.5</v>
       </c>
+      <c r="R18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="5">
+        <v>10</v>
+      </c>
+      <c r="T18" s="1">
+        <v>52.077599999999997</v>
+      </c>
+      <c r="U18" s="1">
+        <v>15</v>
+      </c>
+      <c r="V18" s="1">
+        <v>51.253799999999998</v>
+      </c>
+      <c r="W18" s="1">
+        <v>52.371400000000001</v>
+      </c>
+      <c r="X18" s="5">
+        <v>52.607500000000002</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>52.352899999999998</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>51.675800000000002</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>52.203899999999997</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>51.814300000000003</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>51.910600000000002</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>52.5077</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>20</v>
       </c>
@@ -11761,8 +11862,56 @@
       <c r="P19" s="6">
         <v>0.5</v>
       </c>
+      <c r="R19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="1">
+        <v>30</v>
+      </c>
+      <c r="T19" s="1">
+        <v>51.381100000000004</v>
+      </c>
+      <c r="U19" s="1">
+        <v>14</v>
+      </c>
+      <c r="V19" s="1">
+        <v>51.161200000000001</v>
+      </c>
+      <c r="W19" s="1">
+        <v>51.386400000000002</v>
+      </c>
+      <c r="X19" s="5">
+        <v>51.595799999999997</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>51.434600000000003</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>51.453000000000003</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>51.255699999999997</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>51.627699999999997</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>51.145899999999997</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>51.369700000000002</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="AG19" s="6">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>20</v>
       </c>
@@ -11811,8 +11960,56 @@
       <c r="P20" s="1">
         <v>1.5</v>
       </c>
+      <c r="R20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="1">
+        <v>50</v>
+      </c>
+      <c r="T20" s="1">
+        <v>51.628300000000003</v>
+      </c>
+      <c r="U20" s="1">
+        <v>11</v>
+      </c>
+      <c r="V20" s="5">
+        <v>51.875999999999998</v>
+      </c>
+      <c r="W20" s="1">
+        <v>51.563000000000002</v>
+      </c>
+      <c r="X20" s="1">
+        <v>51.445799999999998</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>51.676000000000002</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>51.871299999999998</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>51.337600000000002</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>51.252899999999997</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>52.013500000000001</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>51.618499999999997</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>18</v>
       </c>
@@ -11861,8 +12058,67 @@
       <c r="P21" s="6">
         <v>0.5</v>
       </c>
+      <c r="R21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S21" s="1">
+        <v>10</v>
+      </c>
+      <c r="T21" s="12">
+        <f>AVERAGE(T18:T20)</f>
+        <v>51.695666666666661</v>
+      </c>
+      <c r="U21" s="17">
+        <f t="shared" ref="U21:AD21" si="0">AVERAGE(U18:U20)</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="0"/>
+        <v>51.43033333333333</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="0"/>
+        <v>51.773600000000009</v>
+      </c>
+      <c r="X21" s="13">
+        <f t="shared" si="0"/>
+        <v>51.883033333333337</v>
+      </c>
+      <c r="Y21" s="13">
+        <f t="shared" si="0"/>
+        <v>51.82116666666667</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="0"/>
+        <v>51.666699999999999</v>
+      </c>
+      <c r="AA21" s="12">
+        <f t="shared" si="0"/>
+        <v>51.599066666666666</v>
+      </c>
+      <c r="AB21" s="12">
+        <f t="shared" si="0"/>
+        <v>51.56496666666667</v>
+      </c>
+      <c r="AC21" s="1">
+        <f t="shared" si="0"/>
+        <v>51.69</v>
+      </c>
+      <c r="AD21" s="13">
+        <f t="shared" si="0"/>
+        <v>51.831966666666666</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>18</v>
       </c>
@@ -11912,7 +12168,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>18</v>
       </c>
@@ -11961,8 +12217,54 @@
       <c r="P23" s="6">
         <v>2.5</v>
       </c>
+      <c r="R23" s="1"/>
+      <c r="S23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG23" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>44</v>
       </c>
@@ -11974,43 +12276,43 @@
         <v>51.850066666666663</v>
       </c>
       <c r="D24" s="12">
-        <f t="shared" ref="D24:M24" si="0">AVERAGE(D18:D23)</f>
+        <f t="shared" ref="D24:M24" si="1">AVERAGE(D18:D23)</f>
         <v>12.833333333333334</v>
       </c>
       <c r="E24" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.639133333333341</v>
       </c>
       <c r="F24" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.845683333333341</v>
       </c>
       <c r="G24" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52.065383333333337</v>
       </c>
       <c r="H24" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.774550000000005</v>
       </c>
       <c r="I24" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.880083333333324</v>
       </c>
       <c r="J24" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.895550000000007</v>
       </c>
       <c r="K24" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.770900000000005</v>
       </c>
       <c r="L24" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.85626666666667</v>
       </c>
       <c r="M24" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.923033333333336</v>
       </c>
       <c r="N24" s="8">
@@ -12022,8 +12324,156 @@
       <c r="P24" s="8">
         <v>2.5</v>
       </c>
+      <c r="R24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S24" s="5">
+        <v>10</v>
+      </c>
+      <c r="T24" s="5">
+        <v>52.163699999999999</v>
+      </c>
+      <c r="U24" s="1">
+        <v>14</v>
+      </c>
+      <c r="V24" s="1">
+        <v>52.252200000000002</v>
+      </c>
+      <c r="W24" s="1">
+        <v>51.854399999999998</v>
+      </c>
+      <c r="X24" s="5">
+        <v>52.384599999999999</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>52.123399999999997</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>52.121499999999997</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>52.246200000000002</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>52.251199999999997</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>52.171500000000002</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>52.068300000000001</v>
+      </c>
+      <c r="AE24" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AF24" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="AG24" s="6">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="R25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S25" s="6">
+        <v>30</v>
+      </c>
+      <c r="T25" s="6">
+        <v>51.706400000000002</v>
+      </c>
+      <c r="U25" s="1">
+        <v>12</v>
+      </c>
+      <c r="V25" s="6">
+        <v>51.522599999999997</v>
+      </c>
+      <c r="W25" s="1">
+        <v>51.466500000000003</v>
+      </c>
+      <c r="X25" s="5">
+        <v>52.130200000000002</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>51.471499999999999</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>51.956800000000001</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>51.691000000000003</v>
+      </c>
+      <c r="AB25" s="6">
+        <v>51.670200000000001</v>
+      </c>
+      <c r="AC25" s="5">
+        <v>51.785699999999999</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>51.663499999999999</v>
+      </c>
+      <c r="AE25" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AF25" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="AG25" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="R26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S26" s="1">
+        <v>50</v>
+      </c>
+      <c r="T26" s="1">
+        <v>52.143300000000004</v>
+      </c>
+      <c r="U26" s="1">
+        <v>11</v>
+      </c>
+      <c r="V26" s="12">
+        <v>51.768999999999998</v>
+      </c>
+      <c r="W26" s="5">
+        <v>52.432400000000001</v>
+      </c>
+      <c r="X26" s="1">
+        <v>52.228400000000001</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>51.588900000000002</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>52.202100000000002</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>52.6389</v>
+      </c>
+      <c r="AB26" s="6">
+        <v>52.009099999999997</v>
+      </c>
+      <c r="AC26" s="6">
+        <v>52.110399999999998</v>
+      </c>
+      <c r="AD26" s="5">
+        <v>52.310499999999998</v>
+      </c>
+      <c r="AE26" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AF26" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="AG26" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="9" t="s">
         <v>29</v>
@@ -12070,8 +12520,67 @@
       <c r="P27" s="9" t="s">
         <v>43</v>
       </c>
+      <c r="R27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S27" s="1">
+        <v>10</v>
+      </c>
+      <c r="T27" s="12">
+        <f t="shared" ref="T27:AD27" si="2">AVERAGE(T24:T26)</f>
+        <v>52.004466666666673</v>
+      </c>
+      <c r="U27" s="17">
+        <f t="shared" si="2"/>
+        <v>12.333333333333334</v>
+      </c>
+      <c r="V27" s="12">
+        <f t="shared" si="2"/>
+        <v>51.847933333333337</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" si="2"/>
+        <v>51.917766666666665</v>
+      </c>
+      <c r="X27" s="13">
+        <f t="shared" si="2"/>
+        <v>52.247733333333336</v>
+      </c>
+      <c r="Y27" s="15">
+        <f t="shared" si="2"/>
+        <v>51.727933333333333</v>
+      </c>
+      <c r="Z27" s="1">
+        <f t="shared" si="2"/>
+        <v>52.093466666666664</v>
+      </c>
+      <c r="AA27" s="13">
+        <f t="shared" si="2"/>
+        <v>52.192033333333335</v>
+      </c>
+      <c r="AB27" s="12">
+        <f t="shared" si="2"/>
+        <v>51.976833333333332</v>
+      </c>
+      <c r="AC27" s="8">
+        <f t="shared" si="2"/>
+        <v>52.022533333333335</v>
+      </c>
+      <c r="AD27" s="15">
+        <f t="shared" si="2"/>
+        <v>52.014099999999992</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>9</v>
       </c>
@@ -12121,7 +12630,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>9</v>
       </c>
@@ -12171,7 +12680,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>9</v>
       </c>
@@ -12221,7 +12730,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>24</v>
       </c>
@@ -12271,7 +12780,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>24</v>
       </c>
@@ -12379,47 +12888,47 @@
         <v>30</v>
       </c>
       <c r="C34" s="12">
-        <f>AVERAGE(C28:C33)</f>
+        <f t="shared" ref="C34:M34" si="3">AVERAGE(C28:C33)</f>
         <v>40.542666666666669</v>
       </c>
       <c r="D34" s="14">
-        <f t="shared" ref="D34" si="1">AVERAGE(D28:D33)</f>
+        <f t="shared" si="3"/>
         <v>14.5</v>
       </c>
       <c r="E34" s="13">
-        <f t="shared" ref="E34" si="2">AVERAGE(E28:E33)</f>
+        <f t="shared" si="3"/>
         <v>40.704783333333332</v>
       </c>
       <c r="F34" s="12">
-        <f t="shared" ref="F34" si="3">AVERAGE(F28:F33)</f>
+        <f t="shared" si="3"/>
         <v>40.497916666666669</v>
       </c>
       <c r="G34" s="15">
-        <f t="shared" ref="G34" si="4">AVERAGE(G28:G33)</f>
+        <f t="shared" si="3"/>
         <v>40.424833333333332</v>
       </c>
       <c r="H34" s="12">
-        <f t="shared" ref="H34" si="5">AVERAGE(H28:H33)</f>
+        <f t="shared" si="3"/>
         <v>40.465533333333333</v>
       </c>
       <c r="I34" s="13">
-        <f t="shared" ref="I34" si="6">AVERAGE(I28:I33)</f>
+        <f t="shared" si="3"/>
         <v>40.689499999999995</v>
       </c>
       <c r="J34" s="15">
-        <f t="shared" ref="J34" si="7">AVERAGE(J28:J33)</f>
+        <f t="shared" si="3"/>
         <v>40.472933333333337</v>
       </c>
       <c r="K34" s="12">
-        <f t="shared" ref="K34" si="8">AVERAGE(K28:K33)</f>
+        <f t="shared" si="3"/>
         <v>40.568649999999998</v>
       </c>
       <c r="L34" s="13">
-        <f t="shared" ref="L34" si="9">AVERAGE(L28:L33)</f>
+        <f t="shared" si="3"/>
         <v>40.569133333333333</v>
       </c>
       <c r="M34" s="15">
-        <f t="shared" ref="M34" si="10">AVERAGE(M28:M33)</f>
+        <f t="shared" si="3"/>
         <v>40.490200000000002</v>
       </c>
       <c r="N34" s="8">

--- a/estadoPruebasInstanceGenerator.xlsx
+++ b/estadoPruebasInstanceGenerator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER END\Desktop\TEC COURSES\MASTER\TESIS\MATLAB\JSSP-Matlab-OOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790B7078-4A90-41FA-821D-2A7F7B0358F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4C768C-97C5-4609-A6A6-8890B8BCFC8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10904,8 +10904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEEF030-16A7-4272-BC78-8959B586F96E}">
   <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N16" workbookViewId="0">
-      <selection activeCell="AC33" sqref="AC33"/>
+    <sheetView tabSelected="1" topLeftCell="O16" workbookViewId="0">
+      <selection activeCell="AG28" sqref="AG28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12574,10 +12574,10 @@
         <v>0.9</v>
       </c>
       <c r="AF27" s="1">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="AG27" s="1">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
